--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>To verify that user is able to add a document to watchlist from search results page</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>To verify that user is able to delete a document from watchlist</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -590,44 +590,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -167,19 +167,22 @@
     <t>To verify that user is able to add a document to watchlist from document page</t>
   </si>
   <si>
+    <t>TestCase_E3</t>
+  </si>
+  <si>
+    <t>To verify that user is able to delete a document from watchlist</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>TestCase_E3</t>
-  </si>
-  <si>
-    <t>To verify that user is able to delete a document from watchlist</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,7 +602,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -613,21 +616,21 @@
         <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case Steps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -173,16 +174,10 @@
     <t>To verify that user is able to delete a document from watchlist</t>
   </si>
   <si>
+    <t>SKIP</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -565,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -602,7 +597,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -613,10 +608,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -627,10 +622,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -597,7 +597,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -611,7 +611,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -625,7 +625,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -11,12 +11,11 @@
     <sheet name="Test Case Steps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -177,14 +176,13 @@
     <t>SKIP</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -566,10 +564,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -608,7 +606,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -622,7 +620,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -636,7 +634,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -644,10 +642,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>TCID</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -559,7 +556,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +603,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -620,7 +617,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -175,11 +175,15 @@
   <si>
     <t>SKIP</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -561,10 +565,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -639,10 +643,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -176,17 +176,37 @@
     <t>SKIP</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>UnwatchArticleFromSearch</t>
+  </si>
+  <si>
+    <t>To verify that user is able to unwatch a document from search results page</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>To verify that user is able to unwatch a document from document(Record View) page</t>
+  </si>
+  <si>
+    <t>UnwatchArticleFromRecordViewTest</t>
+  </si>
+  <si>
+    <t>To verify that the following fields are getting displayed for each document in watchlist page:
+a)Times cited
+b)Comments
+c)Views</t>
+  </si>
+  <si>
+    <t>WatchlistArticleDocInfoTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -218,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,11 +261,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,6 +292,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,18 +593,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -596,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -610,7 +643,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -624,10 +657,52 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -646,10 +721,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -185,9 +185,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>To verify that user is able to unwatch a document from document(Record View) page</t>
   </si>
   <si>
@@ -201,6 +198,35 @@
   </si>
   <si>
     <t>WatchlistArticleDocInfoTest</t>
+  </si>
+  <si>
+    <t>To verify that document count gets decreased in the watchlist page when a document is deleted from watchlist</t>
+  </si>
+  <si>
+    <t>To verify that MORE button doesn't get displayed if number of documents in watchlist page is less than or equal to 10</t>
+  </si>
+  <si>
+    <t>WatchlistDeleteArticleTest</t>
+  </si>
+  <si>
+    <t>WatchlistMoreButtonBelowTenArticlesTest</t>
+  </si>
+  <si>
+    <t>WatchlistMoreButtonAboveTenArticlesTest</t>
+  </si>
+  <si>
+    <t>NavigateToWatchlistFromRVTest</t>
+  </si>
+  <si>
+    <t>To verify that app navigates to correct page when user navigates back from document page</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that MORE button is present in watchlist page if total search results is more than 10
+To verify that MORE button is working correctly in watchlist page
+</t>
   </si>
 </sst>
 </file>
@@ -593,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,10 +705,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>30</v>
@@ -692,17 +718,73 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="60">
-      <c r="A7" t="s">
-        <v>45</v>
+      <c r="A7" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="61.5" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>TCID</t>
   </si>
@@ -176,17 +176,63 @@
     <t>SKIP</t>
   </si>
   <si>
+    <t>UnwatchArticleFromSearch</t>
+  </si>
+  <si>
+    <t>To verify that user is able to unwatch a document from search results page</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>To verify that user is able to unwatch a document from document(Record View) page</t>
+  </si>
+  <si>
+    <t>UnwatchArticleFromRecordViewTest</t>
+  </si>
+  <si>
+    <t>To verify that the following fields are getting displayed for each document in watchlist page:
+a)Times cited
+b)Comments
+c)Views</t>
+  </si>
+  <si>
+    <t>WatchlistArticleDocInfoTest</t>
+  </si>
+  <si>
+    <t>To verify that document count gets decreased in the watchlist page when a document is deleted from watchlist</t>
+  </si>
+  <si>
+    <t>To verify that MORE button doesn't get displayed if number of documents in watchlist page is less than or equal to 10</t>
+  </si>
+  <si>
+    <t>WatchlistDeleteArticleTest</t>
+  </si>
+  <si>
+    <t>WatchlistMoreButtonBelowTenArticlesTest</t>
+  </si>
+  <si>
+    <t>WatchlistMoreButtonAboveTenArticlesTest</t>
+  </si>
+  <si>
+    <t>NavigateToWatchlistFromRVTest</t>
+  </si>
+  <si>
+    <t>To verify that app navigates to correct page when user navigates back from document page</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t xml:space="preserve">To verify that MORE button is present in watchlist page if total search results is more than 10
+To verify that MORE button is working correctly in watchlist page
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -218,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,11 +287,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,6 +318,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,18 +619,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -596,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -610,7 +669,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -624,10 +683,108 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60">
+      <c r="A7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="61.5" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -646,10 +803,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>TCID</t>
   </si>
@@ -221,18 +221,22 @@
     <t>To verify that app navigates to correct page when user navigates back from document page</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t xml:space="preserve">To verify that MORE button is present in watchlist page if total search results is more than 10
 To verify that MORE button is working correctly in watchlist page
 </t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -264,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,22 +291,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,8 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,16 +612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -655,10 +646,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -669,10 +660,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -683,10 +674,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -696,8 +687,8 @@
       <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>37</v>
@@ -710,8 +701,8 @@
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>30</v>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -724,8 +715,8 @@
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>37</v>
@@ -738,8 +729,8 @@
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>37</v>
@@ -752,8 +743,8 @@
       <c r="B9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>37</v>
@@ -764,10 +755,10 @@
         <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -780,11 +771,11 @@
       <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +794,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="55">
   <si>
     <t>TCID</t>
   </si>
@@ -613,7 +613,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C2:C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -649,7 +649,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -660,10 +660,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -674,10 +674,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -225,18 +225,11 @@
 To verify that MORE button is working correctly in watchlist page
 </t>
   </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -613,15 +606,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -660,7 +653,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -674,7 +667,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -794,10 +787,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -230,6 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -611,10 +612,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -787,10 +788,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -230,7 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -607,15 +606,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -640,7 +639,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -668,7 +667,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -788,10 +787,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -639,7 +639,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -667,7 +667,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -225,18 +225,11 @@
 To verify that MORE button is working correctly in watchlist page
 </t>
   </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -613,15 +606,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C2:C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -649,7 +642,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -663,7 +656,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -677,7 +670,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -794,10 +787,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -230,6 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -611,10 +612,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -787,10 +788,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>TCID</t>
   </si>
@@ -224,6 +224,15 @@
     <t xml:space="preserve">To verify that MORE button is present in watchlist page if total search results is more than 10
 To verify that MORE button is working correctly in watchlist page
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -607,7 +616,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -640,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -654,7 +663,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -668,7 +677,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -682,10 +691,10 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -696,10 +705,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60">
@@ -710,10 +719,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -724,10 +733,10 @@
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
@@ -738,10 +747,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1">
@@ -752,10 +761,10 @@
         <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -766,10 +775,10 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>TCID</t>
   </si>
@@ -239,7 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -621,10 +620,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -797,10 +796,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -615,7 +615,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -690,7 +690,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>54</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>55</v>
@@ -732,7 +732,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>55</v>
@@ -746,7 +746,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>54</v>
@@ -760,7 +760,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>55</v>
@@ -774,7 +774,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>55</v>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>TCID</t>
   </si>
@@ -239,7 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -616,15 +615,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -691,7 +690,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>54</v>
@@ -719,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>55</v>
@@ -733,7 +732,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>55</v>
@@ -747,7 +746,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>54</v>
@@ -761,7 +760,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>55</v>
@@ -775,7 +774,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>55</v>
@@ -797,10 +796,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>
@@ -182,9 +182,6 @@
     <t>To verify that user is able to unwatch a document from search results page</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>To verify that user is able to unwatch a document from document(Record View) page</t>
   </si>
   <si>
@@ -224,15 +221,6 @@
     <t xml:space="preserve">To verify that MORE button is present in watchlist page if total search results is more than 10
 To verify that MORE button is working correctly in watchlist page
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N </t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -615,7 +603,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -648,7 +636,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -662,7 +650,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -676,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -690,94 +678,94 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>
@@ -227,6 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -608,10 +609,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -784,10 +785,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>TCID</t>
   </si>
@@ -221,6 +221,15 @@
     <t xml:space="preserve">To verify that MORE button is present in watchlist page if total search results is more than 10
 To verify that MORE button is working correctly in watchlist page
 </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -604,12 +613,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
@@ -637,7 +646,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -651,7 +660,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -665,7 +674,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -679,7 +688,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>37</v>
@@ -693,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -707,7 +716,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>37</v>
@@ -721,7 +730,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>37</v>
@@ -738,7 +747,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1">
@@ -752,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -766,7 +775,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -223,12 +223,6 @@
 </t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
 </sst>
@@ -236,7 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -613,15 +606,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -646,7 +639,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>37</v>
@@ -660,7 +653,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -674,7 +667,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -688,7 +681,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>37</v>
@@ -702,7 +695,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -716,7 +709,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>37</v>
@@ -730,7 +723,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>37</v>
@@ -747,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1">
@@ -761,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -775,7 +768,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -794,10 +787,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -222,12 +222,14 @@
 To verify that MORE button is working correctly in watchlist page
 </t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -604,15 +606,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -738,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1">
@@ -752,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -766,7 +768,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -785,10 +787,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -230,6 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -611,10 +612,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -740,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1">
@@ -754,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -768,7 +769,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -787,10 +788,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -230,6 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -611,10 +612,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -740,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1">
@@ -754,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -768,7 +769,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -787,10 +788,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14400" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>
@@ -155,82 +155,114 @@
     <t>Y</t>
   </si>
   <si>
-    <t>To verify that user is able to add a document to watchlist from search results page</t>
-  </si>
-  <si>
     <t>TestCase_E1</t>
   </si>
   <si>
     <t>TestCase_E2</t>
   </si>
   <si>
-    <t>To verify that user is able to add a document to watchlist from document page</t>
-  </si>
-  <si>
     <t>TestCase_E3</t>
   </si>
   <si>
-    <t>To verify that user is able to delete a document from watchlist</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>UnwatchArticleFromSearch</t>
-  </si>
-  <si>
-    <t>To verify that user is able to unwatch a document from search results page</t>
-  </si>
-  <si>
-    <t>To verify that user is able to unwatch a document from document(Record View) page</t>
-  </si>
-  <si>
-    <t>UnwatchArticleFromRecordViewTest</t>
-  </si>
-  <si>
-    <t>To verify that the following fields are getting displayed for each document in watchlist page:
+    <t>TestCase_E4</t>
+  </si>
+  <si>
+    <t>TestCase_E5</t>
+  </si>
+  <si>
+    <t>TestCase_E6</t>
+  </si>
+  <si>
+    <t>TestCase_E7</t>
+  </si>
+  <si>
+    <t>TestCase_E8</t>
+  </si>
+  <si>
+    <t>TestCase_E9</t>
+  </si>
+  <si>
+    <t>TestCase_E10</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add a document to watchlist from search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add a document to watchlist from document page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to delete a document from watchlist</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch a document from search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch a document from document(Record View) page</t>
+  </si>
+  <si>
+    <t>Verify that the following fields are getting displayed for each document in watchlist page:
 a)Times cited
 b)Comments
 c)Views</t>
   </si>
   <si>
-    <t>WatchlistArticleDocInfoTest</t>
-  </si>
-  <si>
-    <t>To verify that document count gets decreased in the watchlist page when a document is deleted from watchlist</t>
-  </si>
-  <si>
-    <t>To verify that MORE button doesn't get displayed if number of documents in watchlist page is less than or equal to 10</t>
-  </si>
-  <si>
-    <t>WatchlistDeleteArticleTest</t>
-  </si>
-  <si>
-    <t>WatchlistMoreButtonBelowTenArticlesTest</t>
-  </si>
-  <si>
-    <t>WatchlistMoreButtonAboveTenArticlesTest</t>
-  </si>
-  <si>
-    <t>NavigateToWatchlistFromRVTest</t>
-  </si>
-  <si>
-    <t>To verify that app navigates to correct page when user navigates back from document page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify that MORE button is present in watchlist page if total search results is more than 10
-To verify that MORE button is working correctly in watchlist page
+    <t>Verify that document count gets decreased in the watchlist page when a document is deleted from watchlist</t>
+  </si>
+  <si>
+    <t>Verify that MORE button doesn't get displayed if number of documents in watchlist page is less than or equal to 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that MORE button is present in watchlist page if total search results is more than 10
+Verify that MORE button is working correctly in watchlist page
 </t>
   </si>
   <si>
+    <t>Verify that app navigates to correct page when user navigates back from document page</t>
+  </si>
+  <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-256</t>
+  </si>
+  <si>
+    <t>OPQA-259</t>
+  </si>
+  <si>
+    <t>OPQA-260</t>
+  </si>
+  <si>
+    <t>OPQA-261</t>
+  </si>
+  <si>
+    <t>OPQA-262</t>
+  </si>
+  <si>
+    <t>OPQA-264</t>
+  </si>
+  <si>
+    <t>OPQA-265</t>
+  </si>
+  <si>
+    <t>OPQA-267</t>
+  </si>
+  <si>
+    <t>OPQA-268</t>
+  </si>
+  <si>
+    <t>OPQA-269</t>
+  </si>
+  <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -604,172 +636,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="61.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -788,10 +854,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>
@@ -263,6 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -644,11 +645,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -750,7 +751,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60">
@@ -854,10 +855,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>
@@ -263,6 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -644,11 +645,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -750,7 +751,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60">
@@ -854,10 +855,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="3900"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14400" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>
@@ -155,75 +155,108 @@
     <t>Y</t>
   </si>
   <si>
-    <t>To verify that user is able to add a document to watchlist from search results page</t>
-  </si>
-  <si>
     <t>TestCase_E1</t>
   </si>
   <si>
     <t>TestCase_E2</t>
   </si>
   <si>
-    <t>To verify that user is able to add a document to watchlist from document page</t>
-  </si>
-  <si>
     <t>TestCase_E3</t>
   </si>
   <si>
-    <t>To verify that user is able to delete a document from watchlist</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>UnwatchArticleFromSearch</t>
-  </si>
-  <si>
-    <t>To verify that user is able to unwatch a document from search results page</t>
-  </si>
-  <si>
-    <t>To verify that user is able to unwatch a document from document(Record View) page</t>
-  </si>
-  <si>
-    <t>UnwatchArticleFromRecordViewTest</t>
-  </si>
-  <si>
-    <t>To verify that the following fields are getting displayed for each document in watchlist page:
+    <t>TestCase_E4</t>
+  </si>
+  <si>
+    <t>TestCase_E5</t>
+  </si>
+  <si>
+    <t>TestCase_E6</t>
+  </si>
+  <si>
+    <t>TestCase_E7</t>
+  </si>
+  <si>
+    <t>TestCase_E8</t>
+  </si>
+  <si>
+    <t>TestCase_E9</t>
+  </si>
+  <si>
+    <t>TestCase_E10</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add a document to watchlist from search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add a document to watchlist from document page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to delete a document from watchlist</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch a document from search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch a document from document(Record View) page</t>
+  </si>
+  <si>
+    <t>Verify that the following fields are getting displayed for each document in watchlist page:
 a)Times cited
 b)Comments
 c)Views</t>
   </si>
   <si>
-    <t>WatchlistArticleDocInfoTest</t>
-  </si>
-  <si>
-    <t>To verify that document count gets decreased in the watchlist page when a document is deleted from watchlist</t>
-  </si>
-  <si>
-    <t>To verify that MORE button doesn't get displayed if number of documents in watchlist page is less than or equal to 10</t>
-  </si>
-  <si>
-    <t>WatchlistDeleteArticleTest</t>
-  </si>
-  <si>
-    <t>WatchlistMoreButtonBelowTenArticlesTest</t>
-  </si>
-  <si>
-    <t>WatchlistMoreButtonAboveTenArticlesTest</t>
-  </si>
-  <si>
-    <t>NavigateToWatchlistFromRVTest</t>
-  </si>
-  <si>
-    <t>To verify that app navigates to correct page when user navigates back from document page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify that MORE button is present in watchlist page if total search results is more than 10
-To verify that MORE button is working correctly in watchlist page
+    <t>Verify that document count gets decreased in the watchlist page when a document is deleted from watchlist</t>
+  </si>
+  <si>
+    <t>Verify that MORE button doesn't get displayed if number of documents in watchlist page is less than or equal to 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that MORE button is present in watchlist page if total search results is more than 10
+Verify that MORE button is working correctly in watchlist page
 </t>
   </si>
   <si>
+    <t>Verify that app navigates to correct page when user navigates back from document page</t>
+  </si>
+  <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-256</t>
+  </si>
+  <si>
+    <t>OPQA-259</t>
+  </si>
+  <si>
+    <t>OPQA-260</t>
+  </si>
+  <si>
+    <t>OPQA-261</t>
+  </si>
+  <si>
+    <t>OPQA-262</t>
+  </si>
+  <si>
+    <t>OPQA-264</t>
+  </si>
+  <si>
+    <t>OPQA-265</t>
+  </si>
+  <si>
+    <t>OPQA-267</t>
+  </si>
+  <si>
+    <t>OPQA-268</t>
+  </si>
+  <si>
+    <t>OPQA-269</t>
+  </si>
+  <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -604,172 +637,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="60">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="61.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>
@@ -263,6 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -644,11 +645,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -750,7 +751,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60">
@@ -854,10 +855,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14400" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14205" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case Steps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>
@@ -185,12 +186,6 @@
     <t>TestCase_E10</t>
   </si>
   <si>
-    <t>Verify that user is able to add a document to watchlist from search results page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to add a document to watchlist from document page</t>
-  </si>
-  <si>
     <t>Verify that user is able to delete a document from watchlist</t>
   </si>
   <si>
@@ -253,17 +248,22 @@
     <t>OPQA-269</t>
   </si>
   <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add document to watchlist from ALL content search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add document to watchlist from document page once it is opened from ALL content set results</t>
+  </si>
+  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -639,17 +639,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="109.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -674,16 +674,16 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -691,16 +691,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -708,10 +708,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>30</v>
@@ -725,16 +725,16 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -742,16 +742,16 @@
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60">
@@ -759,16 +759,16 @@
         <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -776,16 +776,16 @@
         <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -793,16 +793,16 @@
         <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
@@ -810,16 +810,16 @@
         <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -827,16 +827,16 @@
         <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +847,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -855,10 +855,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14205" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14400" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case Steps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -168,53 +167,6 @@
     <t>TestCase_E4</t>
   </si>
   <si>
-    <t>TestCase_E5</t>
-  </si>
-  <si>
-    <t>TestCase_E6</t>
-  </si>
-  <si>
-    <t>TestCase_E7</t>
-  </si>
-  <si>
-    <t>TestCase_E8</t>
-  </si>
-  <si>
-    <t>TestCase_E9</t>
-  </si>
-  <si>
-    <t>TestCase_E10</t>
-  </si>
-  <si>
-    <t>Verify that user is able to delete a document from watchlist</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch a document from search results page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch a document from document(Record View) page</t>
-  </si>
-  <si>
-    <t>Verify that the following fields are getting displayed for each document in watchlist page:
-a)Times cited
-b)Comments
-c)Views</t>
-  </si>
-  <si>
-    <t>Verify that document count gets decreased in the watchlist page when a document is deleted from watchlist</t>
-  </si>
-  <si>
-    <t>Verify that MORE button doesn't get displayed if number of documents in watchlist page is less than or equal to 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that MORE button is present in watchlist page if total search results is more than 10
-Verify that MORE button is working correctly in watchlist page
-</t>
-  </si>
-  <si>
-    <t>Verify that app navigates to correct page when user navigates back from document page</t>
-  </si>
-  <si>
     <t>Jira id</t>
   </si>
   <si>
@@ -230,34 +182,22 @@
     <t>OPQA-261</t>
   </si>
   <si>
-    <t>OPQA-262</t>
-  </si>
-  <si>
-    <t>OPQA-264</t>
-  </si>
-  <si>
-    <t>OPQA-265</t>
-  </si>
-  <si>
-    <t>OPQA-267</t>
-  </si>
-  <si>
-    <t>OPQA-268</t>
-  </si>
-  <si>
-    <t>OPQA-269</t>
+    <t>PASS</t>
   </si>
   <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t>Verify that user is able to add document to watchlist from ALL content search results page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to add document to watchlist from document page once it is opened from ALL content set results</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>Verify that user is able to watch an Article from ALL content search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Article from Record View page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from watchlist page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from ALL content search results page</t>
   </si>
 </sst>
 </file>
@@ -637,17 +577,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="109.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -657,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -674,16 +614,16 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -691,16 +631,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -708,16 +648,16 @@
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -725,118 +665,16 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +685,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14400" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14535" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case Steps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>
@@ -185,19 +186,37 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>Verify that user is able to watch an Article from ALL content search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Article from Record View page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from watchlist page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from ALL content search results page</t>
+  </si>
+  <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t>Verify that user is able to watch an Article from ALL content search results page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to watch an Article from Record View page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch an Article from watchlist page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch an Article from ALL content search results page</t>
+    <t>TestCase_E5</t>
+  </si>
+  <si>
+    <t>TestCase_E6</t>
+  </si>
+  <si>
+    <t>TBD-01</t>
+  </si>
+  <si>
+    <t>TBD-02</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Patent from ALL content search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Post from ALL content search results page</t>
   </si>
 </sst>
 </file>
@@ -577,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,13 +636,13 @@
         <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -634,13 +653,13 @@
         <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -651,13 +670,13 @@
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -668,13 +687,47 @@
         <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>TCID</t>
   </si>
@@ -198,25 +198,22 @@
     <t>Verify that user is able to unwatch an Article from ALL content search results page</t>
   </si>
   <si>
-    <t>SKIP</t>
-  </si>
-  <si>
     <t>TestCase_E5</t>
   </si>
   <si>
     <t>TestCase_E6</t>
   </si>
   <si>
-    <t>TBD-01</t>
-  </si>
-  <si>
-    <t>TBD-02</t>
-  </si>
-  <si>
     <t>Verify that user is able to watch an Patent from ALL content search results page</t>
   </si>
   <si>
     <t>Verify that user is able to watch an Post from ALL content search results page</t>
+  </si>
+  <si>
+    <t>OPQA-262</t>
+  </si>
+  <si>
+    <t>OPQA-264</t>
   </si>
 </sst>
 </file>
@@ -598,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -642,7 +639,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -659,7 +656,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -676,7 +673,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -693,18 +690,18 @@
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -715,13 +712,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>30</v>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14400" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14535" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case Steps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>TCID</t>
   </si>
@@ -167,103 +168,58 @@
     <t>TestCase_E4</t>
   </si>
   <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-256</t>
+  </si>
+  <si>
+    <t>OPQA-259</t>
+  </si>
+  <si>
+    <t>OPQA-260</t>
+  </si>
+  <si>
+    <t>OPQA-261</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Article from ALL content search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Article from Record View page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from watchlist page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from ALL content search results page</t>
+  </si>
+  <si>
     <t>TestCase_E5</t>
   </si>
   <si>
     <t>TestCase_E6</t>
   </si>
   <si>
-    <t>TestCase_E7</t>
-  </si>
-  <si>
-    <t>TestCase_E8</t>
-  </si>
-  <si>
-    <t>TestCase_E9</t>
-  </si>
-  <si>
-    <t>TestCase_E10</t>
-  </si>
-  <si>
-    <t>Verify that user is able to add a document to watchlist from search results page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to add a document to watchlist from document page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to delete a document from watchlist</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch a document from search results page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch a document from document(Record View) page</t>
-  </si>
-  <si>
-    <t>Verify that the following fields are getting displayed for each document in watchlist page:
-a)Times cited
-b)Comments
-c)Views</t>
-  </si>
-  <si>
-    <t>Verify that document count gets decreased in the watchlist page when a document is deleted from watchlist</t>
-  </si>
-  <si>
-    <t>Verify that MORE button doesn't get displayed if number of documents in watchlist page is less than or equal to 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that MORE button is present in watchlist page if total search results is more than 10
-Verify that MORE button is working correctly in watchlist page
-</t>
-  </si>
-  <si>
-    <t>Verify that app navigates to correct page when user navigates back from document page</t>
-  </si>
-  <si>
-    <t>Jira id</t>
-  </si>
-  <si>
-    <t>OPQA-256</t>
-  </si>
-  <si>
-    <t>OPQA-259</t>
-  </si>
-  <si>
-    <t>OPQA-260</t>
-  </si>
-  <si>
-    <t>OPQA-261</t>
+    <t>Verify that user is able to watch an Patent from ALL content search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Post from ALL content search results page</t>
   </si>
   <si>
     <t>OPQA-262</t>
   </si>
   <si>
     <t>OPQA-264</t>
-  </si>
-  <si>
-    <t>OPQA-265</t>
-  </si>
-  <si>
-    <t>OPQA-267</t>
-  </si>
-  <si>
-    <t>OPQA-268</t>
-  </si>
-  <si>
-    <t>OPQA-269</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -637,19 +593,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -657,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -674,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>41</v>
@@ -683,7 +639,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -691,7 +647,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -700,7 +656,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -708,7 +664,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>43</v>
@@ -717,7 +673,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -725,7 +681,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>44</v>
@@ -734,109 +690,41 @@
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -855,10 +743,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>TCID</t>
   </si>
@@ -215,12 +215,74 @@
   <si>
     <t>OPQA-264</t>
   </si>
+  <si>
+    <t>TestCase_E7</t>
+  </si>
+  <si>
+    <t>TestCase_E8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-265</t>
+  </si>
+  <si>
+    <t>OPQA-267</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +297,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -593,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -724,6 +793,40 @@
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14535" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14535" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>TCID</t>
   </si>
@@ -276,6 +276,27 @@
   </si>
   <si>
     <t>OPQA-267</t>
+  </si>
+  <si>
+    <t>TBD-01</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Article from Article content search results page</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>TestCase_E9</t>
+  </si>
+  <si>
+    <t>TestCase_E10</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from Article content search results page</t>
+  </si>
+  <si>
+    <t>OPQA-268</t>
   </si>
 </sst>
 </file>
@@ -347,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,6 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -704,11 +726,11 @@
       <c r="C2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -721,11 +743,11 @@
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -738,11 +760,11 @@
       <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -755,11 +777,11 @@
       <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -772,11 +794,11 @@
       <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -789,11 +811,11 @@
       <c r="C7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -806,11 +828,11 @@
       <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -823,10 +845,44 @@
       <c r="C9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14535" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="12630" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Verify that user is able to watch an Article from Article content search results page</t>
   </si>
   <si>
-    <t>SKIP</t>
-  </si>
-  <si>
     <t>TestCase_E9</t>
   </si>
   <si>
@@ -297,6 +294,15 @@
   </si>
   <si>
     <t>OPQA-268</t>
+  </si>
+  <si>
+    <t>TBD-02</t>
+  </si>
+  <si>
+    <t>TestCase_E11</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from Record View page</t>
   </si>
 </sst>
 </file>
@@ -684,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -730,7 +736,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -747,7 +753,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -764,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -781,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -798,7 +804,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -815,7 +821,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -832,7 +838,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -849,15 +855,15 @@
         <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>58</v>
@@ -871,18 +877,35 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14535" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="12630" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -276,6 +276,33 @@
   </si>
   <si>
     <t>OPQA-267</t>
+  </si>
+  <si>
+    <t>TBD-01</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Article from Article content search results page</t>
+  </si>
+  <si>
+    <t>TestCase_E9</t>
+  </si>
+  <si>
+    <t>TestCase_E10</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from Article content search results page</t>
+  </si>
+  <si>
+    <t>OPQA-268</t>
+  </si>
+  <si>
+    <t>TBD-02</t>
+  </si>
+  <si>
+    <t>TestCase_E11</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from Record View page</t>
   </si>
 </sst>
 </file>
@@ -347,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,6 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -704,7 +732,7 @@
       <c r="C2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -721,7 +749,7 @@
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -738,7 +766,7 @@
       <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -755,7 +783,7 @@
       <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -772,7 +800,7 @@
       <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -789,7 +817,7 @@
       <c r="C7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -806,7 +834,7 @@
       <c r="C8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -823,10 +851,61 @@
       <c r="C9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14400" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="12630" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case Steps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>TCID</t>
   </si>
@@ -167,104 +168,148 @@
     <t>TestCase_E4</t>
   </si>
   <si>
+    <t>Jira id</t>
+  </si>
+  <si>
+    <t>OPQA-256</t>
+  </si>
+  <si>
+    <t>OPQA-259</t>
+  </si>
+  <si>
+    <t>OPQA-260</t>
+  </si>
+  <si>
+    <t>OPQA-261</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Article from ALL content search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Article from Record View page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from watchlist page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from ALL content search results page</t>
+  </si>
+  <si>
     <t>TestCase_E5</t>
   </si>
   <si>
     <t>TestCase_E6</t>
   </si>
   <si>
+    <t>Verify that user is able to watch an Patent from ALL content search results page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Post from ALL content search results page</t>
+  </si>
+  <si>
+    <t>OPQA-262</t>
+  </si>
+  <si>
+    <t>OPQA-264</t>
+  </si>
+  <si>
     <t>TestCase_E7</t>
   </si>
   <si>
     <t>TestCase_E8</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-265</t>
+  </si>
+  <si>
+    <t>OPQA-267</t>
+  </si>
+  <si>
+    <t>TBD-01</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an Article from Article content search results page</t>
+  </si>
+  <si>
     <t>TestCase_E9</t>
   </si>
   <si>
     <t>TestCase_E10</t>
   </si>
   <si>
-    <t>Verify that user is able to add a document to watchlist from search results page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to add a document to watchlist from document page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to delete a document from watchlist</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch a document from search results page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch a document from document(Record View) page</t>
-  </si>
-  <si>
-    <t>Verify that the following fields are getting displayed for each document in watchlist page:
-a)Times cited
-b)Comments
-c)Views</t>
-  </si>
-  <si>
-    <t>Verify that document count gets decreased in the watchlist page when a document is deleted from watchlist</t>
-  </si>
-  <si>
-    <t>Verify that MORE button doesn't get displayed if number of documents in watchlist page is less than or equal to 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that MORE button is present in watchlist page if total search results is more than 10
-Verify that MORE button is working correctly in watchlist page
-</t>
-  </si>
-  <si>
-    <t>Verify that app navigates to correct page when user navigates back from document page</t>
-  </si>
-  <si>
-    <t>Jira id</t>
-  </si>
-  <si>
-    <t>OPQA-256</t>
-  </si>
-  <si>
-    <t>OPQA-259</t>
-  </si>
-  <si>
-    <t>OPQA-260</t>
-  </si>
-  <si>
-    <t>OPQA-261</t>
-  </si>
-  <si>
-    <t>OPQA-262</t>
-  </si>
-  <si>
-    <t>OPQA-264</t>
-  </si>
-  <si>
-    <t>OPQA-265</t>
-  </si>
-  <si>
-    <t>OPQA-267</t>
+    <t>Verify that user is able to unwatch an Article from Article content search results page</t>
   </si>
   <si>
     <t>OPQA-268</t>
   </si>
   <si>
-    <t>OPQA-269</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>SKIP</t>
+    <t>TBD-02</t>
+  </si>
+  <si>
+    <t>TestCase_E11</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from Record View page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +324,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -322,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,19 +690,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="105.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -657,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -674,16 +727,16 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -691,16 +744,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -708,16 +761,16 @@
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -725,118 +778,135 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +917,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -855,10 +925,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="52.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="83.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25" customHeight="1">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="12630" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -165,9 +165,6 @@
     <t>TestCase_E3</t>
   </si>
   <si>
-    <t>TestCase_E4</t>
-  </si>
-  <si>
     <t>Jira id</t>
   </si>
   <si>
@@ -180,58 +177,26 @@
     <t>OPQA-260</t>
   </si>
   <si>
-    <t>OPQA-261</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Verify that user is able to watch an Article from ALL content search results page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to watch an Article from Record View page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch an Article from watchlist page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch an Article from ALL content search results page</t>
-  </si>
-  <si>
-    <t>TestCase_E5</t>
-  </si>
-  <si>
-    <t>TestCase_E6</t>
-  </si>
-  <si>
-    <t>Verify that user is able to watch an Patent from ALL content search results page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to watch an Post from ALL content search results page</t>
-  </si>
-  <si>
-    <t>OPQA-262</t>
-  </si>
-  <si>
-    <t>OPQA-264</t>
-  </si>
-  <si>
-    <t>TestCase_E7</t>
-  </si>
-  <si>
-    <t>TestCase_E8</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ALL</t>
     </r>
@@ -243,20 +208,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> content search results page</t>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ALL</t>
     </r>
@@ -268,48 +234,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> content search results page</t>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
     </r>
   </si>
   <si>
-    <t>OPQA-265</t>
-  </si>
-  <si>
-    <t>OPQA-267</t>
-  </si>
-  <si>
-    <t>TBD-01</t>
-  </si>
-  <si>
-    <t>Verify that user is able to watch an Article from Article content search results page</t>
-  </si>
-  <si>
-    <t>TestCase_E9</t>
-  </si>
-  <si>
-    <t>TestCase_E10</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch an Article from Article content search results page</t>
-  </si>
-  <si>
-    <t>OPQA-268</t>
-  </si>
-  <si>
-    <t>TBD-02</t>
-  </si>
-  <si>
-    <t>TestCase_E11</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch an Article from Record View page</t>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,15 +284,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +349,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -710,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -727,16 +688,16 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -744,13 +705,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>40</v>
@@ -761,154 +722,26 @@
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="5" spans="1:5" customFormat="1"/>
+    <row r="6" spans="1:5" customFormat="1"/>
+    <row r="7" spans="1:5" customFormat="1"/>
+    <row r="8" spans="1:5" customFormat="1"/>
+    <row r="9" spans="1:5" customFormat="1"/>
+    <row r="10" spans="1:5" customFormat="1"/>
+    <row r="11" spans="1:5" customFormat="1"/>
+    <row r="12" spans="1:5" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Case Steps" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Case Steps" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <oleSize ref="A1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>TCID</t>
   </si>
   <si>
+    <t>Jira id</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -30,244 +33,50 @@
     <t>Results</t>
   </si>
   <si>
-    <t>TestCase_C1</t>
-  </si>
-  <si>
-    <t>TestCase_C2</t>
-  </si>
-  <si>
-    <t>TC SCENARIO</t>
-  </si>
-  <si>
-    <t>TC STEPS</t>
-  </si>
-  <si>
-    <t>To verify general features of customer mode view of the document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Open Pramata application and login with valid user credentials.
-2) Navigate to dashboard view .
-3) Click on 1st company group and verify that document list for that company gets displayed.
-4) Click on EDIT link and verify that verify that a new tab opens with meta data information.
-5) Click on OPEN IN CUSTOMER MODE link in the left navigation pane and verify that customer view gets        displayed.
-6) Click on OVERVIEW tab and verify that OVERVIEW tab gets displayed.
-7) Click on the company name link present in the left navigation pane and verify that the application navigates to the respective company group document list page.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Open Pramata application and login with valid user credentials.
-2) Navigate to dashboard view .
-3) Click on 1st company group and verify that document list for that company gets displayed.
-4) Click on DOCUMENT ANALYSIS link and verify that customer view mode gets displayed.
-5) Click on KEY TERMS tab and verify that KEY TERMS tab gets displayed.
-6) Click on SHOW ONLY NON STANDARD TERMS link and verify that non standard terms get displayed.
-7) Click on SHOW ONLY AMENDMENTS link and verify that amendments get displayed.
-8)Click on KEY TERMS link and verify that key terms get displayed.
-</t>
-  </si>
-  <si>
-    <t>To verify different links in customer mode view</t>
-  </si>
-  <si>
-    <t>TestCase_C3</t>
-  </si>
-  <si>
-    <t>To verify that EXPORT TO PDF link is working fine</t>
-  </si>
-  <si>
-    <t>TestCase_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Open Pramata application and login with valid user credentials.
-2) Navigate to dashboard view .
-3) Click on 1st company group and verify that document list for that company gets displayed.
-4) Click on DOCUMENT ANALYSIS link and verify that customer view mode gets displayed.
-5) Click on EXPORT TO PDF link present in the left navigation pane and verify that the link expands to give different options.
-6) Click on CANCEL link and verify that all the options disappear and that EXPORT TO PDF link is displayed once again.
-7) Click on EXPORT TO PDF link to display the options once again.
-8) Check all the check boxes,select PORTRAIT radio button,click on SUBMIT button and verify that a window dialog box appears.
-9) Click on OK button in windows dialog box and verify that the pdf file gets downloaded properly.
-10)As the options are still in expanded position,click on LANDSCAPE radio button followed by click on SUBMIT button and verify that the pdf file gets downloaded properly once again.
-</t>
-  </si>
-  <si>
-    <t>To verify that EXPORT TO EXCEL link is working fine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Open Pramata application and login with valid user credentials.
-2) Navigate to dashboard view .
-3) Click on 1st company group and verify that document list for that company gets displayed.
-4) Click on DOCUMENT ANALYSIS link and verify that customer view mode gets displayed.
-5) Click on EXPORT TO EXCEL link present in the left navigation pane and verify that the excel file gets downloaded properly.
-</t>
-  </si>
-  <si>
-    <t>TestCase_C5</t>
-  </si>
-  <si>
-    <t>To verify that clicking on PAGE LINK takes to respective page of document</t>
-  </si>
-  <si>
-    <t>1)Navigate to the below mentioned URL and login with valid user ceredntials:
-https://callawaygolf-stage.pramata.com/customer_view/contract/22126
-2)Click on KEY TERMS tab and verify that KEY TERMS tab gets displayed.
-3)Click on "Page:10" link and verify that 10th page of the document gets displayed.</t>
-  </si>
-  <si>
-    <t>To verify that DOCUMENT tab displays the document uploaded and that document can be opened in a new window</t>
-  </si>
-  <si>
-    <t>TestCase_C6</t>
-  </si>
-  <si>
-    <t>1)Navigate to the below mentioned URL and login with valid user ceredntials:
-https://callawaygolf-stage.pramata.com/customer_view/contract/22126
-2)Click on DOCUMENT tab and verify that DOCUMENT tab gets displayed.
-3)Click on OPEN IN NEW WINDOW link and verify that document opens in new window.</t>
-  </si>
-  <si>
-    <t>TestCase_C7</t>
-  </si>
-  <si>
-    <t>To verify that default tab functionality is working correctly</t>
-  </si>
-  <si>
-    <t>1)Navigate to the below mentioned URL and login with valid user ceredntials:
-https://callawaygolf-stage.pramata.com/customer_view/contract/22126
-2)Click on DOCUMENT tab and verify that DOCUMENT tab gets displayed.
-3)Click on SET AS DEFAULT TAB link and verify that an alert gets displayed with the message "Tab selection modified".
-4)Click on OK in the alert message and verify that the alert gets dismissed and that DOCUMENT tab has been tagged as the default tab.
-5)Also,verify that SET AS DEFAULT tab link is not displayed now in DOCUMENT tab.
-6)Now,logout of the application,relogin and navigate to the following URL once again.
-7)Verify that DOCUMENT tab gets displayed now as the default tab.</t>
-  </si>
-  <si>
-    <t>TestCase_C8</t>
-  </si>
-  <si>
-    <t>To verify that NOTES tab is getting displayed properly</t>
-  </si>
-  <si>
-    <t>1)Navigate to the below mentioned URL and login with valid user ceredntials:
-https://callawaygolf-stage.pramata.com/customer_view/contract/22126
-2)Click on NOTES tab and verify that NOTES tab gets displayed with all the notes(if present).</t>
+    <t>TestCase_E1</t>
+  </si>
+  <si>
+    <t>OPQA-256</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add an Article from ALL content search results page to a particular watchlist</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>TestCase_E1</t>
+    <t>PASS</t>
   </si>
   <si>
     <t>TestCase_E2</t>
   </si>
   <si>
+    <t>OPQA-259</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add a Patent from ALL content search results page to a particular watchlist</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
     <t>TestCase_E3</t>
   </si>
   <si>
-    <t>Jira id</t>
-  </si>
-  <si>
-    <t>OPQA-256</t>
-  </si>
-  <si>
-    <t>OPQA-259</t>
-  </si>
-  <si>
     <t>OPQA-260</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to add an Article from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to add a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page to a particular watchlist</t>
-    </r>
+    <t>Verify that user is able to add a Post from ALL content search results page to a particular watchlist</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -285,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,12 +104,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,25 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,11 +147,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -651,97 +435,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="105.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="92.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customFormat="1"/>
-    <row r="6" spans="1:5" customFormat="1"/>
-    <row r="7" spans="1:5" customFormat="1"/>
-    <row r="8" spans="1:5" customFormat="1"/>
-    <row r="9" spans="1:5" customFormat="1"/>
-    <row r="10" spans="1:5" customFormat="1"/>
-    <row r="11" spans="1:5" customFormat="1"/>
-    <row r="12" spans="1:5" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -750,120 +526,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="52.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="5" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="206.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="203.25" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="295.5" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="147" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="73.5" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="165.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="69.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15150" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
@@ -57,27 +57,116 @@
     <t>Verify that user is able to add a Patent from ALL content search results page to a particular watchlist</t>
   </si>
   <si>
+    <t>TestCase_E3</t>
+  </si>
+  <si>
+    <t>OPQA-260</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add a Post from ALL content search results page to a particular watchlist</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-261</t>
+  </si>
+  <si>
+    <t>OPQA-262</t>
+  </si>
+  <si>
+    <t>OPQA-264</t>
+  </si>
+  <si>
+    <t>TestCase_E4</t>
+  </si>
+  <si>
+    <t>TestCase_E5</t>
+  </si>
+  <si>
+    <t>TestCase_E6</t>
+  </si>
+  <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>TestCase_E3</t>
-  </si>
-  <si>
-    <t>OPQA-260</t>
-  </si>
-  <si>
-    <t>Verify that user is able to add a Post from ALL content search results page to a particular watchlist</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +182,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,11 +237,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,19 +540,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="92.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="92.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -481,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -498,23 +603,74 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15150" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>TCID</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>TestCase_E6</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -543,7 +540,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -603,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -620,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="5130"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15150" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>TestCase_E6</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -583,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -600,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -617,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15150" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>TCID</t>
   </si>
@@ -159,7 +159,128 @@
     <t>TestCase_E6</t>
   </si>
   <si>
-    <t>SKIP</t>
+    <t>TestCase_E7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Articles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-265</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Articles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E8</t>
+  </si>
+  <si>
+    <t>OPQA-267</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E9</t>
+  </si>
+  <si>
+    <t>OPQA-268</t>
+  </si>
+  <si>
+    <t>TestCase_E10</t>
+  </si>
+  <si>
+    <t>OPQA-269</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Record View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -540,17 +661,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="92.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="96.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -586,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -603,7 +724,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -620,7 +741,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -671,6 +792,74 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>OPQA-256</t>
   </si>
   <si>
-    <t>Verify that user is able to add an Article from ALL content search results page to a particular watchlist</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -54,18 +51,12 @@
     <t>OPQA-259</t>
   </si>
   <si>
-    <t>Verify that user is able to add a Patent from ALL content search results page to a particular watchlist</t>
-  </si>
-  <si>
     <t>TestCase_E3</t>
   </si>
   <si>
     <t>OPQA-260</t>
   </si>
   <si>
-    <t>Verify that user is able to add a Post from ALL content search results page to a particular watchlist</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
     </r>
@@ -281,12 +272,224 @@
       </rPr>
       <t xml:space="preserve"> page</t>
     </r>
+  </si>
+  <si>
+    <t>TestCase_E11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-272</t>
+  </si>
+  <si>
+    <t>OPQA-273</t>
+  </si>
+  <si>
+    <t>TestCase_E12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Record View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E13</t>
+  </si>
+  <si>
+    <t>TestCase_E14</t>
+  </si>
+  <si>
+    <t>OPQA-276</t>
+  </si>
+  <si>
+    <t>OPQA-277</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -661,19 +864,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="96.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="96.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -701,166 +904,234 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>TCID</t>
   </si>
@@ -380,12 +380,6 @@
     </r>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
     </r>
@@ -482,14 +476,134 @@
     <t>OPQA-277</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to watch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Record View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-278</t>
+  </si>
+  <si>
+    <t>OPQA-280</t>
+  </si>
+  <si>
+    <t>OPQA-282</t>
+  </si>
+  <si>
+    <t>OPQA-285</t>
+  </si>
+  <si>
+    <t>TestCase_E15</t>
+  </si>
+  <si>
+    <t>TestCase_E16</t>
+  </si>
+  <si>
+    <t>TestCase_E17</t>
+  </si>
+  <si>
+    <t>TestCase_E18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -864,19 +978,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="96.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="96.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -907,10 +1021,10 @@
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -924,10 +1038,10 @@
         <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -941,10 +1055,10 @@
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -958,10 +1072,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -975,10 +1089,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -992,10 +1106,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1009,10 +1123,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1026,10 +1140,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1043,10 +1157,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1060,10 +1174,10 @@
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1071,66 +1185,134 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>TCID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>OPQA-256</t>
   </si>
   <si>
-    <t>Verify that user is able to add an Article from ALL content search results page to a particular watchlist</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -54,18 +51,12 @@
     <t>OPQA-259</t>
   </si>
   <si>
-    <t>Verify that user is able to add a Patent from ALL content search results page to a particular watchlist</t>
-  </si>
-  <si>
     <t>TestCase_E3</t>
   </si>
   <si>
     <t>OPQA-260</t>
   </si>
   <si>
-    <t>Verify that user is able to add a Post from ALL content search results page to a particular watchlist</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
     </r>
@@ -159,7 +150,454 @@
     <t>TestCase_E6</t>
   </si>
   <si>
-    <t>SKIP</t>
+    <t>TestCase_E7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Articles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-265</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Articles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E8</t>
+  </si>
+  <si>
+    <t>OPQA-267</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E9</t>
+  </si>
+  <si>
+    <t>OPQA-268</t>
+  </si>
+  <si>
+    <t>TestCase_E10</t>
+  </si>
+  <si>
+    <t>OPQA-269</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Record View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-272</t>
+  </si>
+  <si>
+    <t>OPQA-273</t>
+  </si>
+  <si>
+    <t>TestCase_E12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Record View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E13</t>
+  </si>
+  <si>
+    <t>TestCase_E14</t>
+  </si>
+  <si>
+    <t>OPQA-276</t>
+  </si>
+  <si>
+    <t>OPQA-277</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to watch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Record View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-278</t>
+  </si>
+  <si>
+    <t>OPQA-280</t>
+  </si>
+  <si>
+    <t>OPQA-282</t>
+  </si>
+  <si>
+    <t>OPQA-285</t>
+  </si>
+  <si>
+    <t>TestCase_E15</t>
+  </si>
+  <si>
+    <t>TestCase_E16</t>
+  </si>
+  <si>
+    <t>TestCase_E17</t>
+  </si>
+  <si>
+    <t>TestCase_E18</t>
   </si>
 </sst>
 </file>
@@ -540,17 +978,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="92.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="96.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -580,98 +1018,302 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15150" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>TCID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>OPQA-256</t>
   </si>
   <si>
-    <t>Verify that user is able to add an Article from ALL content search results page to a particular watchlist</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -54,18 +51,12 @@
     <t>OPQA-259</t>
   </si>
   <si>
-    <t>Verify that user is able to add a Patent from ALL content search results page to a particular watchlist</t>
-  </si>
-  <si>
     <t>TestCase_E3</t>
   </si>
   <si>
     <t>OPQA-260</t>
   </si>
   <si>
-    <t>Verify that user is able to add a Post from ALL content search results page to a particular watchlist</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
     </r>
@@ -159,7 +150,454 @@
     <t>TestCase_E6</t>
   </si>
   <si>
-    <t>SKIP</t>
+    <t>TestCase_E7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Articles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-265</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Articles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E8</t>
+  </si>
+  <si>
+    <t>OPQA-267</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E9</t>
+  </si>
+  <si>
+    <t>OPQA-268</t>
+  </si>
+  <si>
+    <t>TestCase_E10</t>
+  </si>
+  <si>
+    <t>OPQA-269</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Record View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-272</t>
+  </si>
+  <si>
+    <t>OPQA-273</t>
+  </si>
+  <si>
+    <t>TestCase_E12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Record View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E13</t>
+  </si>
+  <si>
+    <t>TestCase_E14</t>
+  </si>
+  <si>
+    <t>OPQA-276</t>
+  </si>
+  <si>
+    <t>OPQA-277</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to watch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Record View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-278</t>
+  </si>
+  <si>
+    <t>OPQA-280</t>
+  </si>
+  <si>
+    <t>OPQA-282</t>
+  </si>
+  <si>
+    <t>OPQA-285</t>
+  </si>
+  <si>
+    <t>TestCase_E15</t>
+  </si>
+  <si>
+    <t>TestCase_E16</t>
+  </si>
+  <si>
+    <t>TestCase_E17</t>
+  </si>
+  <si>
+    <t>TestCase_E18</t>
   </si>
 </sst>
 </file>
@@ -540,17 +978,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="92.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="96.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -580,98 +1018,302 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="4995"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -598,6 +598,37 @@
   </si>
   <si>
     <t>TestCase_E18</t>
+  </si>
+  <si>
+    <t>TestCase_E19</t>
+  </si>
+  <si>
+    <t>Verify that following fields are getting displayed for each article in the watchlist page:
+a)Times cited
+b)Comments</t>
+  </si>
+  <si>
+    <t>OPQA-288</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>TestCase_E20</t>
+  </si>
+  <si>
+    <t>OPQA-290</t>
+  </si>
+  <si>
+    <t>Verify that following fields are getting displayed for each post in the watchlist page:
+a)Likes
+b)Comments</t>
+  </si>
+  <si>
+    <t>OPQA-291</t>
+  </si>
+  <si>
+    <t>TestCase_E21</t>
   </si>
 </sst>
 </file>
@@ -978,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1024,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1041,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1058,7 +1089,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1075,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1092,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1109,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1126,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1143,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1160,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1177,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1194,7 +1225,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1211,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1228,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1245,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1262,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1279,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1296,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1313,6 +1344,57 @@
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="4995"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>TCID</t>
   </si>
@@ -611,9 +611,6 @@
     <t>OPQA-288</t>
   </si>
   <si>
-    <t>SKIP</t>
-  </si>
-  <si>
     <t>TestCase_E20</t>
   </si>
   <si>
@@ -629,6 +626,33 @@
   </si>
   <si>
     <t>TestCase_E21</t>
+  </si>
+  <si>
+    <t>TestCase_E22</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from watchlist page</t>
+  </si>
+  <si>
+    <t>OPQA-293</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch a Patent from watchlist page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch a Post from watchlist page</t>
+  </si>
+  <si>
+    <t>TestCase_E23</t>
+  </si>
+  <si>
+    <t>TestCase_E24</t>
+  </si>
+  <si>
+    <t>OPQA-294</t>
+  </si>
+  <si>
+    <t>OPQA-295</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1072,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1089,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1106,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1123,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1140,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1157,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1174,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1191,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1208,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1225,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1242,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1259,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1276,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1293,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1310,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1327,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1344,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
@@ -1361,15 +1385,15 @@
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45">
       <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>62</v>
@@ -1378,23 +1402,74 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
       <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>TCID</t>
   </si>
@@ -653,6 +653,24 @@
   </si>
   <si>
     <t>OPQA-295</t>
+  </si>
+  <si>
+    <t>TestCase_E25</t>
+  </si>
+  <si>
+    <t>Verify that document count gets decreased in the watchlist page when a item is deleted from watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-297</t>
+  </si>
+  <si>
+    <t>TestCase_E26</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create a new watchlist||Verify that user is able to name the watchlists||Verify that a user can add description to his watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-312 ||OPQA-314 ||OPQA-317</t>
   </si>
 </sst>
 </file>
@@ -730,13 +748,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1033,16 +1057,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="96.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1470,6 +1494,40 @@
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>TCID</t>
   </si>
@@ -667,10 +667,19 @@
     <t>TestCase_E26</t>
   </si>
   <si>
-    <t>Verify that user is able to create a new watchlist||Verify that user is able to name the watchlists||Verify that a user can add description to his watchlist</t>
-  </si>
-  <si>
-    <t>OPQA-312 ||OPQA-314 ||OPQA-317</t>
+    <t>OPQA-314 ||OPQA-317</t>
+  </si>
+  <si>
+    <t>OPQA-312</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create a new watchlist</t>
+  </si>
+  <si>
+    <t>Verify that user is able to name the watchlists||Verify that a user can add description to his watchlist</t>
+  </si>
+  <si>
+    <t>TestCase_E27</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1514,7 +1523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -1522,12 +1531,29 @@
         <v>83</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="C28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="6525"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>TCID</t>
   </si>
@@ -670,16 +670,36 @@
     <t>OPQA-314 ||OPQA-317</t>
   </si>
   <si>
-    <t>OPQA-312</t>
-  </si>
-  <si>
-    <t>Verify that user is able to create a new watchlist</t>
-  </si>
-  <si>
     <t>Verify that user is able to name the watchlists||Verify that a user can add description to his watchlist</t>
   </si>
   <si>
     <t>TestCase_E27</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create multiple watchlists</t>
+  </si>
+  <si>
+    <t>TestCase_E28</t>
+  </si>
+  <si>
+    <t>OPQA-313</t>
+  </si>
+  <si>
+    <t>TestCase_E29</t>
+  </si>
+  <si>
+    <t>OPQA-320
+||OPQA-623</t>
+  </si>
+  <si>
+    <t>Verify that user is able to share watchlist publically||Verify that user is able to see his public watchlists on his own profile page</t>
+  </si>
+  <si>
+    <t>OPQA-312
+||OPQA-624</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create a new watchlist||Verify that user is able to see his private watchlists on his own profile page</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1523,15 +1543,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -1542,18 +1562,52 @@
     </row>
     <row r="28" spans="1:5" ht="30">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="4995"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>TCID</t>
   </si>
@@ -611,9 +611,6 @@
     <t>OPQA-288</t>
   </si>
   <si>
-    <t>SKIP</t>
-  </si>
-  <si>
     <t>TestCase_E20</t>
   </si>
   <si>
@@ -629,6 +626,80 @@
   </si>
   <si>
     <t>TestCase_E21</t>
+  </si>
+  <si>
+    <t>TestCase_E22</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch an Article from watchlist page</t>
+  </si>
+  <si>
+    <t>OPQA-293</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch a Patent from watchlist page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to unwatch a Post from watchlist page</t>
+  </si>
+  <si>
+    <t>TestCase_E23</t>
+  </si>
+  <si>
+    <t>TestCase_E24</t>
+  </si>
+  <si>
+    <t>OPQA-294</t>
+  </si>
+  <si>
+    <t>OPQA-295</t>
+  </si>
+  <si>
+    <t>TestCase_E25</t>
+  </si>
+  <si>
+    <t>Verify that document count gets decreased in the watchlist page when a item is deleted from watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-297</t>
+  </si>
+  <si>
+    <t>TestCase_E26</t>
+  </si>
+  <si>
+    <t>OPQA-314 ||OPQA-317</t>
+  </si>
+  <si>
+    <t>Verify that user is able to name the watchlists||Verify that a user can add description to his watchlist</t>
+  </si>
+  <si>
+    <t>TestCase_E27</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create multiple watchlists</t>
+  </si>
+  <si>
+    <t>TestCase_E28</t>
+  </si>
+  <si>
+    <t>OPQA-313</t>
+  </si>
+  <si>
+    <t>TestCase_E29</t>
+  </si>
+  <si>
+    <t>OPQA-320
+||OPQA-623</t>
+  </si>
+  <si>
+    <t>Verify that user is able to share watchlist publically||Verify that user is able to see his public watchlists on his own profile page</t>
+  </si>
+  <si>
+    <t>OPQA-312
+||OPQA-624</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create a new watchlist||Verify that user is able to see his private watchlists on his own profile page</t>
   </si>
 </sst>
 </file>
@@ -706,13 +777,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,16 +1086,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="96.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1055,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1072,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1089,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1106,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1123,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1140,7 +1217,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1157,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1174,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1191,7 +1268,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1208,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1225,7 +1302,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1242,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1259,7 +1336,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1276,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1293,7 +1370,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1310,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1327,7 +1404,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1344,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
@@ -1361,15 +1438,15 @@
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45">
       <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>62</v>
@@ -1378,23 +1455,159 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
       <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
   <si>
     <t>TCID</t>
   </si>
@@ -667,12 +667,6 @@
     <t>TestCase_E26</t>
   </si>
   <si>
-    <t>OPQA-314 ||OPQA-317</t>
-  </si>
-  <si>
-    <t>Verify that user is able to name the watchlists||Verify that a user can add description to his watchlist</t>
-  </si>
-  <si>
     <t>TestCase_E27</t>
   </si>
   <si>
@@ -700,6 +694,40 @@
   </si>
   <si>
     <t>Verify that user is able to create a new watchlist||Verify that user is able to see his private watchlists on his own profile page</t>
+  </si>
+  <si>
+    <t>Verify that a user has 1 watchlist by default once we try to watch an item</t>
+  </si>
+  <si>
+    <t>OPQA-324</t>
+  </si>
+  <si>
+    <t>TestCase_E30</t>
+  </si>
+  <si>
+    <t>Verify that user is able to have a watchlist with 0 item under it</t>
+  </si>
+  <si>
+    <t>OPQA-326</t>
+  </si>
+  <si>
+    <t>TestCase_E31</t>
+  </si>
+  <si>
+    <t>OPQA-314 ||OPQA-317
+||OPQA-327</t>
+  </si>
+  <si>
+    <t>Verify that user is able to name the watchlists||Verify that a user can add description to his watchlist||Verify that watchlist name is customizable</t>
+  </si>
+  <si>
+    <t>Verify that every user watchlist is private by default</t>
+  </si>
+  <si>
+    <t>TestCase_E32</t>
+  </si>
+  <si>
+    <t>OPQA-328</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1548,10 +1576,10 @@
         <v>81</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -1560,15 +1588,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30">
+    <row r="28" spans="1:5" ht="45">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -1579,13 +1607,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -1596,18 +1624,69 @@
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
   <si>
     <t>TCID</t>
   </si>
@@ -728,6 +728,24 @@
   </si>
   <si>
     <t>OPQA-328</t>
+  </si>
+  <si>
+    <t>Verify that anyone can see the public watchlists of a user on user's profile page</t>
+  </si>
+  <si>
+    <t>OPQA-321</t>
+  </si>
+  <si>
+    <t>TestCase_E33</t>
+  </si>
+  <si>
+    <t>Verify that no one can see the private watchlists of a user on user's profile page</t>
+  </si>
+  <si>
+    <t>OPQA-329</t>
+  </si>
+  <si>
+    <t>TestCase_E34</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1687,6 +1705,40 @@
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
   <si>
     <t>TCID</t>
   </si>
@@ -667,12 +667,6 @@
     <t>TestCase_E26</t>
   </si>
   <si>
-    <t>OPQA-314 ||OPQA-317</t>
-  </si>
-  <si>
-    <t>Verify that user is able to name the watchlists||Verify that a user can add description to his watchlist</t>
-  </si>
-  <si>
     <t>TestCase_E27</t>
   </si>
   <si>
@@ -700,6 +694,58 @@
   </si>
   <si>
     <t>Verify that user is able to create a new watchlist||Verify that user is able to see his private watchlists on his own profile page</t>
+  </si>
+  <si>
+    <t>Verify that a user has 1 watchlist by default once we try to watch an item</t>
+  </si>
+  <si>
+    <t>OPQA-324</t>
+  </si>
+  <si>
+    <t>TestCase_E30</t>
+  </si>
+  <si>
+    <t>Verify that user is able to have a watchlist with 0 item under it</t>
+  </si>
+  <si>
+    <t>OPQA-326</t>
+  </si>
+  <si>
+    <t>TestCase_E31</t>
+  </si>
+  <si>
+    <t>OPQA-314 ||OPQA-317
+||OPQA-327</t>
+  </si>
+  <si>
+    <t>Verify that user is able to name the watchlists||Verify that a user can add description to his watchlist||Verify that watchlist name is customizable</t>
+  </si>
+  <si>
+    <t>Verify that every user watchlist is private by default</t>
+  </si>
+  <si>
+    <t>TestCase_E32</t>
+  </si>
+  <si>
+    <t>OPQA-328</t>
+  </si>
+  <si>
+    <t>Verify that anyone can see the public watchlists of a user on user's profile page</t>
+  </si>
+  <si>
+    <t>OPQA-321</t>
+  </si>
+  <si>
+    <t>TestCase_E33</t>
+  </si>
+  <si>
+    <t>Verify that no one can see the private watchlists of a user on user's profile page</t>
+  </si>
+  <si>
+    <t>OPQA-329</t>
+  </si>
+  <si>
+    <t>TestCase_E34</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1548,10 +1594,10 @@
         <v>81</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -1560,15 +1606,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30">
+    <row r="28" spans="1:5" ht="45">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -1579,13 +1625,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -1596,18 +1642,103 @@
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
   <si>
     <t>TCID</t>
   </si>
@@ -746,6 +746,24 @@
   </si>
   <si>
     <t>TestCase_E34</t>
+  </si>
+  <si>
+    <t>Verify that user is able to convert his public watchlist to private</t>
+  </si>
+  <si>
+    <t>TestCase_E35</t>
+  </si>
+  <si>
+    <t>OPQA-330</t>
+  </si>
+  <si>
+    <t>Verify that user is able to see the watchlist items by content type</t>
+  </si>
+  <si>
+    <t>TestCase_E36</t>
+  </si>
+  <si>
+    <t>OPQA-618</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1739,6 +1757,40 @@
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
   <si>
     <t>TCID</t>
   </si>
@@ -764,6 +764,17 @@
   </si>
   <si>
     <t>OPQA-618</t>
+  </si>
+  <si>
+    <t>TestCase_E37</t>
+  </si>
+  <si>
+    <t>Verify that user is able to delete a watchlist||Verify that user is not able to see his watchlist on his own 
+profile page once that particular watchlist is deleted.</t>
+  </si>
+  <si>
+    <t>OPQA-625
+||OPQA-1104</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1791,6 +1802,23 @@
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30">
+      <c r="A38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="5085"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
   <si>
     <t>TCID</t>
   </si>
@@ -775,6 +775,15 @@
   <si>
     <t>OPQA-625
 ||OPQA-1104</t>
+  </si>
+  <si>
+    <t>Verify that a user's public watchlist is not visible to another user once that particular watchlist is deleted.</t>
+  </si>
+  <si>
+    <t>TestCase_E38</t>
+  </si>
+  <si>
+    <t>OPQA-1105</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1819,6 +1828,23 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
   <si>
     <t>TCID</t>
   </si>
@@ -746,6 +746,44 @@
   </si>
   <si>
     <t>TestCase_E34</t>
+  </si>
+  <si>
+    <t>Verify that user is able to convert his public watchlist to private</t>
+  </si>
+  <si>
+    <t>TestCase_E35</t>
+  </si>
+  <si>
+    <t>OPQA-330</t>
+  </si>
+  <si>
+    <t>Verify that user is able to see the watchlist items by content type</t>
+  </si>
+  <si>
+    <t>TestCase_E36</t>
+  </si>
+  <si>
+    <t>OPQA-618</t>
+  </si>
+  <si>
+    <t>TestCase_E37</t>
+  </si>
+  <si>
+    <t>Verify that user is able to delete a watchlist||Verify that user is not able to see his watchlist on his own 
+profile page once that particular watchlist is deleted.</t>
+  </si>
+  <si>
+    <t>OPQA-625
+||OPQA-1104</t>
+  </si>
+  <si>
+    <t>Verify that a user's public watchlist is not visible to another user once that particular watchlist is deleted.</t>
+  </si>
+  <si>
+    <t>TestCase_E38</t>
+  </si>
+  <si>
+    <t>OPQA-1105</t>
   </si>
 </sst>
 </file>
@@ -1132,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1739,6 +1777,74 @@
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30">
+      <c r="A38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -730,19 +730,7 @@
     <t>OPQA-328</t>
   </si>
   <si>
-    <t>Verify that anyone can see the public watchlists of a user on user's profile page</t>
-  </si>
-  <si>
-    <t>OPQA-321</t>
-  </si>
-  <si>
     <t>TestCase_E33</t>
-  </si>
-  <si>
-    <t>Verify that no one can see the private watchlists of a user on user's profile page</t>
-  </si>
-  <si>
-    <t>OPQA-329</t>
   </si>
   <si>
     <t>TestCase_E34</t>
@@ -784,6 +772,20 @@
   </si>
   <si>
     <t>OPQA-1105</t>
+  </si>
+  <si>
+    <t>Verify that anyone can see the public watchlists of a user on user's profile page||Verify that user1 is able to see a watchlist on user2's profile page,  once user2's private watchlist is made to public.</t>
+  </si>
+  <si>
+    <t>OPQA-321
+||OPQA-621</t>
+  </si>
+  <si>
+    <t>Verify that no one can see the private watchlists of a user on user's profile page||Verify that user1 is not able to see a watchlist on user2's profile page,  once user2's public watchlist is reverted to private.</t>
+  </si>
+  <si>
+    <t>OPQA-329
+||OPQA-621</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1175,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1746,32 +1748,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30">
+      <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>106</v>
+      <c r="B35" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
@@ -1782,13 +1784,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -1799,13 +1801,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -1816,13 +1818,13 @@
     </row>
     <row r="38" spans="1:5" ht="30">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -1833,13 +1835,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="2520"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
   <si>
     <t>TCID</t>
   </si>
@@ -786,6 +786,15 @@
   <si>
     <t>OPQA-329
 ||OPQA-621</t>
+  </si>
+  <si>
+    <t>Verify that same article can be added to multiple watchlists</t>
+  </si>
+  <si>
+    <t>TestCase_E39</t>
+  </si>
+  <si>
+    <t>OPQA-1106</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1847,6 +1856,23 @@
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="2520"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
   <si>
     <t>TCID</t>
   </si>
@@ -730,19 +730,7 @@
     <t>OPQA-328</t>
   </si>
   <si>
-    <t>Verify that anyone can see the public watchlists of a user on user's profile page</t>
-  </si>
-  <si>
-    <t>OPQA-321</t>
-  </si>
-  <si>
     <t>TestCase_E33</t>
-  </si>
-  <si>
-    <t>Verify that no one can see the private watchlists of a user on user's profile page</t>
-  </si>
-  <si>
-    <t>OPQA-329</t>
   </si>
   <si>
     <t>TestCase_E34</t>
@@ -784,6 +772,29 @@
   </si>
   <si>
     <t>OPQA-1105</t>
+  </si>
+  <si>
+    <t>Verify that anyone can see the public watchlists of a user on user's profile page||Verify that user1 is able to see a watchlist on user2's profile page,  once user2's private watchlist is made to public.</t>
+  </si>
+  <si>
+    <t>OPQA-321
+||OPQA-621</t>
+  </si>
+  <si>
+    <t>Verify that no one can see the private watchlists of a user on user's profile page||Verify that user1 is not able to see a watchlist on user2's profile page,  once user2's public watchlist is reverted to private.</t>
+  </si>
+  <si>
+    <t>OPQA-329
+||OPQA-621</t>
+  </si>
+  <si>
+    <t>Verify that same article can be added to multiple watchlists</t>
+  </si>
+  <si>
+    <t>TestCase_E39</t>
+  </si>
+  <si>
+    <t>OPQA-1106</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1746,32 +1757,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30">
+      <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>106</v>
+      <c r="B35" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
@@ -1782,13 +1793,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -1799,13 +1810,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -1816,13 +1827,13 @@
     </row>
     <row r="38" spans="1:5" ht="30">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -1833,18 +1844,35 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="2520"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="12240" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
   <si>
     <t>TCID</t>
   </si>
@@ -795,6 +795,24 @@
   </si>
   <si>
     <t>OPQA-1106</t>
+  </si>
+  <si>
+    <t>TestCase_E40</t>
+  </si>
+  <si>
+    <t>OPQA-1108</t>
+  </si>
+  <si>
+    <t>Verify that same post can be added to multiple watchlists</t>
+  </si>
+  <si>
+    <t>Verify that same patent can be added to multiple watchlists</t>
+  </si>
+  <si>
+    <t>TestCase_E41</t>
+  </si>
+  <si>
+    <t>OPQA-1109</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1873,6 +1891,40 @@
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14175" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="12240" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
   <si>
     <t>TCID</t>
   </si>
@@ -730,19 +730,7 @@
     <t>OPQA-328</t>
   </si>
   <si>
-    <t>Verify that anyone can see the public watchlists of a user on user's profile page</t>
-  </si>
-  <si>
-    <t>OPQA-321</t>
-  </si>
-  <si>
     <t>TestCase_E33</t>
-  </si>
-  <si>
-    <t>Verify that no one can see the private watchlists of a user on user's profile page</t>
-  </si>
-  <si>
-    <t>OPQA-329</t>
   </si>
   <si>
     <t>TestCase_E34</t>
@@ -784,6 +772,47 @@
   </si>
   <si>
     <t>OPQA-1105</t>
+  </si>
+  <si>
+    <t>Verify that anyone can see the public watchlists of a user on user's profile page||Verify that user1 is able to see a watchlist on user2's profile page,  once user2's private watchlist is made to public.</t>
+  </si>
+  <si>
+    <t>OPQA-321
+||OPQA-621</t>
+  </si>
+  <si>
+    <t>Verify that no one can see the private watchlists of a user on user's profile page||Verify that user1 is not able to see a watchlist on user2's profile page,  once user2's public watchlist is reverted to private.</t>
+  </si>
+  <si>
+    <t>OPQA-329
+||OPQA-621</t>
+  </si>
+  <si>
+    <t>Verify that same article can be added to multiple watchlists</t>
+  </si>
+  <si>
+    <t>TestCase_E39</t>
+  </si>
+  <si>
+    <t>OPQA-1106</t>
+  </si>
+  <si>
+    <t>TestCase_E40</t>
+  </si>
+  <si>
+    <t>OPQA-1108</t>
+  </si>
+  <si>
+    <t>Verify that same post can be added to multiple watchlists</t>
+  </si>
+  <si>
+    <t>Verify that same patent can be added to multiple watchlists</t>
+  </si>
+  <si>
+    <t>TestCase_E41</t>
+  </si>
+  <si>
+    <t>OPQA-1109</t>
   </si>
 </sst>
 </file>
@@ -1170,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1746,32 +1775,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30">
+      <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>106</v>
+      <c r="B35" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
@@ -1782,13 +1811,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -1799,13 +1828,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -1816,13 +1845,13 @@
     </row>
     <row r="38" spans="1:5" ht="30">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -1833,18 +1862,69 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="12240" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="18030" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -788,15 +788,9 @@
 ||OPQA-621</t>
   </si>
   <si>
-    <t>Verify that same article can be added to multiple watchlists</t>
-  </si>
-  <si>
     <t>TestCase_E39</t>
   </si>
   <si>
-    <t>OPQA-1106</t>
-  </si>
-  <si>
     <t>TestCase_E40</t>
   </si>
   <si>
@@ -813,6 +807,14 @@
   </si>
   <si>
     <t>OPQA-1109</t>
+  </si>
+  <si>
+    <t>OPQA-1106
+||OPQA-310</t>
+  </si>
+  <si>
+    <t>Verify that same article can be added to multiple watchlists||Verify that user is able to add an item to a
+particular watchlist during watching</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1877,15 +1879,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="30">
       <c r="A40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
@@ -1896,13 +1898,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
@@ -1913,13 +1915,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="18030" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
   <si>
     <t>TCID</t>
   </si>
@@ -815,6 +815,16 @@
   <si>
     <t>Verify that same article can be added to multiple watchlists||Verify that user is able to add an item to a
 particular watchlist during watching</t>
+  </si>
+  <si>
+    <t>TestCase_E42</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an article to a particular watchlist from notification in home page||Verify that user is able to unwatch an article from watchlist from notification in home page</t>
+  </si>
+  <si>
+    <t>OPQA-298
+||OPQA-304</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1927,6 +1937,23 @@
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30">
+      <c r="A43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13830" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
   <si>
     <t>TCID</t>
   </si>
@@ -825,6 +825,16 @@
   <si>
     <t>OPQA-298
 ||OPQA-304</t>
+  </si>
+  <si>
+    <t>OPQA-300
+||OPQA-306</t>
+  </si>
+  <si>
+    <t>TestCase_E43</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch a patent to a particular watchlist from notification in home page||Verify that user is able to unwatch a patent from watchlist from notification in home page</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1954,6 +1964,23 @@
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="12240" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13830" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
   <si>
     <t>TCID</t>
   </si>
@@ -788,15 +788,9 @@
 ||OPQA-621</t>
   </si>
   <si>
-    <t>Verify that same article can be added to multiple watchlists</t>
-  </si>
-  <si>
     <t>TestCase_E39</t>
   </si>
   <si>
-    <t>OPQA-1106</t>
-  </si>
-  <si>
     <t>TestCase_E40</t>
   </si>
   <si>
@@ -813,6 +807,34 @@
   </si>
   <si>
     <t>OPQA-1109</t>
+  </si>
+  <si>
+    <t>OPQA-1106
+||OPQA-310</t>
+  </si>
+  <si>
+    <t>Verify that same article can be added to multiple watchlists||Verify that user is able to add an item to a
+particular watchlist during watching</t>
+  </si>
+  <si>
+    <t>TestCase_E42</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an article to a particular watchlist from notification in home page||Verify that user is able to unwatch an article from watchlist from notification in home page</t>
+  </si>
+  <si>
+    <t>OPQA-298
+||OPQA-304</t>
+  </si>
+  <si>
+    <t>OPQA-300
+||OPQA-306</t>
+  </si>
+  <si>
+    <t>TestCase_E43</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch a patent to a particular watchlist from notification in home page||Verify that user is able to unwatch a patent from watchlist from notification in home page</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1877,15 +1899,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="30">
       <c r="A40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="1" t="s">
         <v>120</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
@@ -1896,13 +1918,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
@@ -1913,18 +1935,52 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30">
+      <c r="A43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13830" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
   <si>
     <t>TCID</t>
   </si>
@@ -835,6 +835,16 @@
   </si>
   <si>
     <t>Verify that user is able to watch a patent to a particular watchlist from notification in home page||Verify that user is able to unwatch a patent from watchlist from notification in home page</t>
+  </si>
+  <si>
+    <t>TestCase_E44</t>
+  </si>
+  <si>
+    <t>OPQA-303
+||OPQA-308</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch a post(user generated content) to a particular watchlist from notification in home page||Verify that user is able to unwatch a post from watchlist from notification in home page</t>
   </si>
 </sst>
 </file>
@@ -1221,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1981,6 +1991,23 @@
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30">
+      <c r="A45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="3810"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="140">
   <si>
     <t>TCID</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>TestCase_E2</t>
@@ -845,6 +842,15 @@
   </si>
   <si>
     <t>Verify that user is able to watch a post(user generated content) to a particular watchlist from notification in home page||Verify that user is able to unwatch a post from watchlist from notification in home page</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1271,744 +1277,744 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
       <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45">
       <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30">
       <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30">
       <c r="A43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30">
       <c r="A44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30">
       <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
   <si>
     <t>TCID</t>
   </si>
@@ -844,19 +844,20 @@
     <t>Verify that user is able to watch a post(user generated content) to a particular watchlist from notification in home page||Verify that user is able to unwatch a post from watchlist from notification in home page</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>SKIP</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1239,17 +1240,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="D41" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="96.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="96.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1283,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1300,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1317,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1334,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1351,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1368,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1385,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1402,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1419,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1436,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1453,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1470,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1487,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1504,7 +1505,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1521,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1538,7 +1539,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1555,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1572,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
@@ -1589,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45">
@@ -1606,7 +1607,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
@@ -1623,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1691,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
@@ -1708,7 +1709,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -1725,7 +1726,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1742,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
@@ -1776,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1793,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1810,7 +1811,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30">
@@ -1827,7 +1828,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30">
@@ -1844,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1861,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1878,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30">
@@ -1895,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1912,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30">
@@ -1929,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1946,7 +1947,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1963,7 +1964,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30">
@@ -1977,10 +1978,10 @@
         <v>129</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30">
@@ -1994,7 +1995,7 @@
         <v>133</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>138</v>
@@ -2011,7 +2012,7 @@
         <v>136</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>138</v>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
   <si>
     <t>TCID</t>
   </si>
@@ -1284,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1318,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1352,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1369,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1386,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1403,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1420,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1437,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1454,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1471,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1505,7 +1505,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1522,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1539,7 +1539,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1556,7 +1556,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1573,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
@@ -1590,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45">
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
@@ -1624,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1641,7 +1641,7 @@
         <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1658,7 +1658,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1675,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1692,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
@@ -1709,7 +1709,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -1726,7 +1726,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1743,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
@@ -1760,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1777,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1794,7 +1794,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1811,7 +1811,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30">
@@ -1828,7 +1828,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30">
@@ -1845,7 +1845,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1862,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1879,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30">
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1913,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30">
@@ -1930,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1947,7 +1947,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1964,7 +1964,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30">
@@ -1981,7 +1981,7 @@
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30">
@@ -1998,7 +1998,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30">
@@ -2015,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="3810"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="18030" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="140">
   <si>
     <t>TCID</t>
   </si>
@@ -36,24 +36,15 @@
     <t>TestCase_E1</t>
   </si>
   <si>
-    <t>OPQA-256</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>TestCase_E2</t>
   </si>
   <si>
-    <t>OPQA-259</t>
-  </si>
-  <si>
     <t>TestCase_E3</t>
   </si>
   <si>
-    <t>OPQA-260</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
     </r>
@@ -151,7 +142,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
     </r>
     <r>
       <rPr>
@@ -171,11 +162,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> content search results page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <t>OPQA-265</t>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E8</t>
+  </si>
+  <si>
+    <t>OPQA-267</t>
+  </si>
+  <si>
+    <t>TestCase_E9</t>
+  </si>
+  <si>
+    <t>TestCase_E10</t>
+  </si>
+  <si>
+    <t>OPQA-269</t>
   </si>
   <si>
     <r>
@@ -189,7 +192,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Articles</t>
+      <t>Record View</t>
     </r>
     <r>
       <rPr>
@@ -199,18 +202,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E11</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> content search results page</t>
     </r>
   </si>
   <si>
-    <t>TestCase_E8</t>
-  </si>
-  <si>
-    <t>OPQA-267</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    <t>OPQA-273</t>
+  </si>
+  <si>
+    <t>TestCase_E12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +251,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Record View </t>
+      <t>Record View</t>
     </r>
     <r>
       <rPr>
@@ -230,24 +261,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <t>TestCase_E9</t>
-  </si>
-  <si>
-    <t>OPQA-268</t>
-  </si>
-  <si>
-    <t>TestCase_E10</t>
-  </si>
-  <si>
-    <t>OPQA-269</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
+      <t xml:space="preserve"> page</t>
+    </r>
+  </si>
+  <si>
+    <t>TestCase_E13</t>
+  </si>
+  <si>
+    <t>TestCase_E14</t>
+  </si>
+  <si>
+    <t>OPQA-277</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
     </r>
     <r>
       <rPr>
@@ -257,6 +285,31 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t>Posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>Record View</t>
     </r>
     <r>
@@ -271,315 +324,7 @@
     </r>
   </si>
   <si>
-    <t>TestCase_E11</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Patents</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to add a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to add an Article from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Patents</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <t>OPQA-272</t>
-  </si>
-  <si>
-    <t>OPQA-273</t>
-  </si>
-  <si>
-    <t>TestCase_E12</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Record View </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Record View</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t>TestCase_E13</t>
-  </si>
-  <si>
-    <t>TestCase_E14</t>
-  </si>
-  <si>
-    <t>OPQA-276</t>
-  </si>
-  <si>
-    <t>OPQA-277</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to add a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Posts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Posts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to watch a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Record View </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>page to a particular watchlist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Record View</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t>OPQA-278</t>
-  </si>
-  <si>
     <t>OPQA-280</t>
-  </si>
-  <si>
-    <t>OPQA-282</t>
   </si>
   <si>
     <t>OPQA-285</t>
@@ -683,22 +428,10 @@
 ||OPQA-623</t>
   </si>
   <si>
-    <t>Verify that user is able to share watchlist publically||Verify that user is able to see his public watchlists on his own profile page</t>
-  </si>
-  <si>
     <t>OPQA-312
 ||OPQA-624</t>
   </si>
   <si>
-    <t>Verify that user is able to create a new watchlist||Verify that user is able to see his private watchlists on his own profile page</t>
-  </si>
-  <si>
-    <t>Verify that a user has 1 watchlist by default once we try to watch an item</t>
-  </si>
-  <si>
-    <t>OPQA-324</t>
-  </si>
-  <si>
     <t>TestCase_E30</t>
   </si>
   <si>
@@ -715,9 +448,6 @@
 ||OPQA-327</t>
   </si>
   <si>
-    <t>Verify that user is able to name the watchlists||Verify that a user can add description to his watchlist||Verify that watchlist name is customizable</t>
-  </si>
-  <si>
     <t>Verify that every user watchlist is private by default</t>
   </si>
   <si>
@@ -752,10 +482,6 @@
   </si>
   <si>
     <t>TestCase_E37</t>
-  </si>
-  <si>
-    <t>Verify that user is able to delete a watchlist||Verify that user is not able to see his watchlist on his own 
-profile page once that particular watchlist is deleted.</t>
   </si>
   <si>
     <t>OPQA-625
@@ -771,16 +497,10 @@
     <t>OPQA-1105</t>
   </si>
   <si>
-    <t>Verify that anyone can see the public watchlists of a user on user's profile page||Verify that user1 is able to see a watchlist on user2's profile page,  once user2's private watchlist is made to public.</t>
-  </si>
-  <si>
     <t>OPQA-321
 ||OPQA-621</t>
   </si>
   <si>
-    <t>Verify that no one can see the private watchlists of a user on user's profile page||Verify that user1 is not able to see a watchlist on user2's profile page,  once user2's public watchlist is reverted to private.</t>
-  </si>
-  <si>
     <t>OPQA-329
 ||OPQA-621</t>
   </si>
@@ -810,14 +530,7 @@
 ||OPQA-310</t>
   </si>
   <si>
-    <t>Verify that same article can be added to multiple watchlists||Verify that user is able to add an item to a
-particular watchlist during watching</t>
-  </si>
-  <si>
     <t>TestCase_E42</t>
-  </si>
-  <si>
-    <t>Verify that user is able to watch an article to a particular watchlist from notification in home page||Verify that user is able to unwatch an article from watchlist from notification in home page</t>
   </si>
   <si>
     <t>OPQA-298
@@ -831,9 +544,6 @@
     <t>TestCase_E43</t>
   </si>
   <si>
-    <t>Verify that user is able to watch a patent to a particular watchlist from notification in home page||Verify that user is able to unwatch a patent from watchlist from notification in home page</t>
-  </si>
-  <si>
     <t>TestCase_E44</t>
   </si>
   <si>
@@ -841,23 +551,346 @@
 ||OPQA-308</t>
   </si>
   <si>
-    <t>Verify that user is able to watch a post(user generated content) to a particular watchlist from notification in home page||Verify that user is able to unwatch a post from watchlist from notification in home page</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>OPQA-256
+||OPQA-261</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist
+||Verify that user is able to unwatch an Article from ALL content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-259
+||OPQA-262</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist
+||Verify that user is able to unwatch a Patent from ALL content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-260
+||OPQA-264</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist
+||Verify that user is able to unwatch a Post from ALL content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-265
+||OPQA-293
+||OPQA-267</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Articles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist
+||Verify that user is able to unwatch an Article from watchlist page
+||Verify that user is able to unwatch an Article from Articles content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-268
+||OPQA-269</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add an Article from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist
+||Verify that user is able to unwatch an Article from Record View page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-272
+||OPQA-294
+||OPQA-273</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist
+||Verify that user is able to unwatch a Patent from watchlist page
+||Verify that user is able to unwatch a Patent from Patents content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-276
+||OPQA-277</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Patent from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist
+||Verify that user is able to unwatch a Patent from Record View page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-278
+||OPQA-295
+||OPQA-280</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to add a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> content search results page to a particular watchlist
+||Verify that user is able to unwatch a Post from watchlist page
+||Verify that user is able to unwatch a Post from Posts content search results page</t>
+    </r>
+  </si>
+  <si>
+    <t>OPQA-282
+||OPQA-285</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify that user is able to watch a Post from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Record View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page to a particular watchlist
+||Verify that user is able to unwatch a Post from Record View page</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that user is able to create a new watchlist
+||Verify that user is able to see his private watchlists on his own profile page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to name the watchlists
+||Verify that a user can add description to his watchlist
+||Verify that watchlist name is customizable</t>
+  </si>
+  <si>
+    <t>Verify that user is able to share watchlist publically
+||Verify that user is able to see his public watchlists on his own profile page</t>
+  </si>
+  <si>
+    <t>OPQA-324
+||OPQA-326
+||OPQA-328</t>
+  </si>
+  <si>
+    <t>Verify that a user has 1 watchlist by default once we try to watch an item
+||Verify that user is able to have a watchlist with 0 item under it
+||Verify that every user watchlist is private by default</t>
+  </si>
+  <si>
+    <t>Verify that anyone can see the public watchlists of a user on user's profile page
+||Verify that user1 is able to see a watchlist on user2's profile page,  once user2's private watchlist is made to public.</t>
+  </si>
+  <si>
+    <t>Verify that no one can see the private watchlists of a user on user's profile page
+||Verify that user1 is not able to see a watchlist on user2's profile page,  once user2's public watchlist is reverted to private.</t>
+  </si>
+  <si>
+    <t>Verify that user is able to delete a watchlist
+||Verify that user is not able to see his watchlist on his own profile page once that particular watchlist is deleted.</t>
+  </si>
+  <si>
+    <t>Verify that same article can be added to multiple watchlists
+||Verify that user is able to add an item to a particular watchlist during watching</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch an article to a particular watchlist from notification in home page
+||Verify that user is able to unwatch an article from watchlist from notification in home page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch a patent to a particular watchlist from notification in home page
+||Verify that user is able to unwatch a patent from watchlist from notification in home page</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch a post(user generated content) to a particular watchlist from notification in home page
+||Verify that user is able to unwatch a post from watchlist from notification in home page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -882,7 +915,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -901,8 +934,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -925,23 +970,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1240,17 +1347,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D41" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="96.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="96.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1270,752 +1377,752 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
+      <c r="B4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45">
       <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45">
       <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
       <c r="A27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>89</v>
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
       <c r="A28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
       <c r="A30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45">
       <c r="A31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>98</v>
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45">
       <c r="A34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>115</v>
+        <v>78</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45">
       <c r="A35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>117</v>
+        <v>79</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>103</v>
+        <v>82</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45">
       <c r="A38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>110</v>
+        <v>86</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30">
       <c r="A40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>127</v>
+        <v>93</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30">
       <c r="A43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30">
       <c r="A44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>133</v>
+        <v>104</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30">
-      <c r="A45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A45" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="18030" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13575" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1690,11 +1690,11 @@
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>107</v>
@@ -1707,11 +1707,11 @@
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>107</v>
@@ -1724,11 +1724,11 @@
       <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>107</v>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13575" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13575" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
   <si>
     <t>TCID</t>
   </si>
@@ -424,10 +424,6 @@
     <t>TestCase_E29</t>
   </si>
   <si>
-    <t>OPQA-320
-||OPQA-623</t>
-  </si>
-  <si>
     <t>OPQA-312
 ||OPQA-624</t>
   </si>
@@ -552,9 +548,6 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>N</t>
@@ -845,10 +838,6 @@
 ||Verify that watchlist name is customizable</t>
   </si>
   <si>
-    <t>Verify that user is able to share watchlist publically
-||Verify that user is able to see his public watchlists on his own profile page</t>
-  </si>
-  <si>
     <t>OPQA-324
 ||OPQA-326
 ||OPQA-328</t>
@@ -885,6 +874,16 @@
   <si>
     <t>Verify that user is able to watch a post(user generated content) to a particular watchlist from notification in home page
 ||Verify that user is able to unwatch a post from watchlist from notification in home page</t>
+  </si>
+  <si>
+    <t>OPQA-313
+||OPQA-320
+||OPQA-623</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create multiple watchlists
+||Verify that user is able to share watchlist publically
+||Verify that user is able to see his public watchlists on his own profile page</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1382,16 +1381,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -1399,16 +1398,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
@@ -1416,16 +1415,16 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1439,10 +1438,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1456,10 +1455,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1473,10 +1472,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
@@ -1484,16 +1483,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1507,10 +1506,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
@@ -1518,16 +1517,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1541,10 +1540,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45">
@@ -1552,16 +1551,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1575,10 +1574,10 @@
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
@@ -1586,16 +1585,16 @@
         <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1609,10 +1608,10 @@
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
@@ -1620,16 +1619,16 @@
         <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1643,10 +1642,10 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
@@ -1654,16 +1653,16 @@
         <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1677,10 +1676,10 @@
         <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
@@ -1697,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45">
@@ -1714,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
@@ -1731,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1745,10 +1744,10 @@
         <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1762,10 +1761,10 @@
         <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1779,10 +1778,10 @@
         <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1792,14 +1791,14 @@
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
@@ -1807,16 +1806,16 @@
         <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>128</v>
+        <v>68</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -1824,16 +1823,16 @@
         <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>129</v>
+        <v>73</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1843,286 +1842,286 @@
       <c r="B29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>130</v>
+        <v>137</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="45">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C37" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45">
       <c r="A38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="C38" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C39" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30">
       <c r="A40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C41" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C42" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30">
       <c r="A43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="C43" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45.75" thickBot="1">
       <c r="A45" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>106</v>
-      </c>
       <c r="C45" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13575" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>TCID</t>
   </si>
@@ -45,301 +45,22 @@
     <t>TestCase_E3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <t>OPQA-261</t>
-  </si>
-  <si>
-    <t>OPQA-262</t>
-  </si>
-  <si>
-    <t>OPQA-264</t>
-  </si>
-  <si>
-    <t>TestCase_E4</t>
-  </si>
-  <si>
-    <t>TestCase_E5</t>
-  </si>
-  <si>
-    <t>TestCase_E6</t>
-  </si>
-  <si>
     <t>TestCase_E7</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Articles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <t>TestCase_E8</t>
-  </si>
-  <si>
-    <t>OPQA-267</t>
-  </si>
-  <si>
     <t>TestCase_E9</t>
   </si>
   <si>
-    <t>TestCase_E10</t>
-  </si>
-  <si>
-    <t>OPQA-269</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Record View</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
     <t>TestCase_E11</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Patents</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <t>OPQA-273</t>
-  </si>
-  <si>
-    <t>TestCase_E12</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Record View</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
     <t>TestCase_E13</t>
   </si>
   <si>
-    <t>TestCase_E14</t>
-  </si>
-  <si>
-    <t>OPQA-277</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Posts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Record View</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t>OPQA-280</t>
-  </si>
-  <si>
-    <t>OPQA-285</t>
-  </si>
-  <si>
     <t>TestCase_E15</t>
   </si>
   <si>
-    <t>TestCase_E16</t>
-  </si>
-  <si>
     <t>TestCase_E17</t>
-  </si>
-  <si>
-    <t>TestCase_E18</t>
   </si>
   <si>
     <t>TestCase_E19</t>
@@ -370,33 +91,6 @@
     <t>TestCase_E21</t>
   </si>
   <si>
-    <t>TestCase_E22</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch an Article from watchlist page</t>
-  </si>
-  <si>
-    <t>OPQA-293</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch a Patent from watchlist page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch a Post from watchlist page</t>
-  </si>
-  <si>
-    <t>TestCase_E23</t>
-  </si>
-  <si>
-    <t>TestCase_E24</t>
-  </si>
-  <si>
-    <t>OPQA-294</t>
-  </si>
-  <si>
-    <t>OPQA-295</t>
-  </si>
-  <si>
     <t>TestCase_E25</t>
   </si>
   <si>
@@ -410,15 +104,6 @@
   </si>
   <si>
     <t>TestCase_E27</t>
-  </si>
-  <si>
-    <t>Verify that user is able to create multiple watchlists</t>
-  </si>
-  <si>
-    <t>TestCase_E28</t>
-  </si>
-  <si>
-    <t>OPQA-313</t>
   </si>
   <si>
     <t>TestCase_E29</t>
@@ -428,56 +113,20 @@
 ||OPQA-624</t>
   </si>
   <si>
-    <t>TestCase_E30</t>
-  </si>
-  <si>
-    <t>Verify that user is able to have a watchlist with 0 item under it</t>
-  </si>
-  <si>
-    <t>OPQA-326</t>
-  </si>
-  <si>
-    <t>TestCase_E31</t>
-  </si>
-  <si>
     <t>OPQA-314 ||OPQA-317
 ||OPQA-327</t>
   </si>
   <si>
-    <t>Verify that every user watchlist is private by default</t>
-  </si>
-  <si>
-    <t>TestCase_E32</t>
-  </si>
-  <si>
-    <t>OPQA-328</t>
-  </si>
-  <si>
-    <t>TestCase_E33</t>
-  </si>
-  <si>
-    <t>TestCase_E34</t>
-  </si>
-  <si>
     <t>Verify that user is able to convert his public watchlist to private</t>
   </si>
   <si>
-    <t>TestCase_E35</t>
-  </si>
-  <si>
     <t>OPQA-330</t>
   </si>
   <si>
     <t>Verify that user is able to see the watchlist items by content type</t>
   </si>
   <si>
-    <t>TestCase_E36</t>
-  </si>
-  <si>
     <t>OPQA-618</t>
-  </si>
-  <si>
-    <t>TestCase_E37</t>
   </si>
   <si>
     <t>OPQA-625
@@ -487,9 +136,6 @@
     <t>Verify that a user's public watchlist is not visible to another user once that particular watchlist is deleted.</t>
   </si>
   <si>
-    <t>TestCase_E38</t>
-  </si>
-  <si>
     <t>OPQA-1105</t>
   </si>
   <si>
@@ -501,12 +147,6 @@
 ||OPQA-621</t>
   </si>
   <si>
-    <t>TestCase_E39</t>
-  </si>
-  <si>
-    <t>TestCase_E40</t>
-  </si>
-  <si>
     <t>OPQA-1108</t>
   </si>
   <si>
@@ -514,9 +154,6 @@
   </si>
   <si>
     <t>Verify that same patent can be added to multiple watchlists</t>
-  </si>
-  <si>
-    <t>TestCase_E41</t>
   </si>
   <si>
     <t>OPQA-1109</t>
@@ -526,9 +163,6 @@
 ||OPQA-310</t>
   </si>
   <si>
-    <t>TestCase_E42</t>
-  </si>
-  <si>
     <t>OPQA-298
 ||OPQA-304</t>
   </si>
@@ -537,20 +171,11 @@
 ||OPQA-306</t>
   </si>
   <si>
-    <t>TestCase_E43</t>
-  </si>
-  <si>
-    <t>TestCase_E44</t>
-  </si>
-  <si>
     <t>OPQA-303
 ||OPQA-308</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>OPQA-256
@@ -884,6 +509,48 @@
     <t>Verify that user is able to create multiple watchlists
 ||Verify that user is able to share watchlist publically
 ||Verify that user is able to see his public watchlists on his own profile page</t>
+  </si>
+  <si>
+    <t>TestCase_E4</t>
+  </si>
+  <si>
+    <t>TestCase_E5</t>
+  </si>
+  <si>
+    <t>TestCase_E6</t>
+  </si>
+  <si>
+    <t>TestCase_E8</t>
+  </si>
+  <si>
+    <t>TestCase_E10</t>
+  </si>
+  <si>
+    <t>TestCase_E12</t>
+  </si>
+  <si>
+    <t>TestCase_E14</t>
+  </si>
+  <si>
+    <t>TestCase_E16</t>
+  </si>
+  <si>
+    <t>TestCase_E18</t>
+  </si>
+  <si>
+    <t>TestCase_E22</t>
+  </si>
+  <si>
+    <t>TestCase_E23</t>
+  </si>
+  <si>
+    <t>TestCase_E24</t>
+  </si>
+  <si>
+    <t>TestCase_E28</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -914,7 +581,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,14 +606,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -969,56 +630,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,27 +643,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1344,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1381,16 +983,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -1398,16 +1000,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
@@ -1415,713 +1017,458 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>83</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45">
       <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45">
       <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
       <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
       <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45">
       <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>54</v>
+        <v>91</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>126</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>127</v>
+        <v>45</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>138</v>
+        <v>47</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45">
-      <c r="A31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45">
-      <c r="A35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45">
-      <c r="A38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30">
-      <c r="A40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30">
-      <c r="A43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30">
-      <c r="A44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A45" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="18030" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>TCID</t>
   </si>
@@ -45,301 +45,22 @@
     <t>TestCase_E3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ALL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <t>OPQA-261</t>
-  </si>
-  <si>
-    <t>OPQA-262</t>
-  </si>
-  <si>
-    <t>OPQA-264</t>
-  </si>
-  <si>
-    <t>TestCase_E4</t>
-  </si>
-  <si>
-    <t>TestCase_E5</t>
-  </si>
-  <si>
-    <t>TestCase_E6</t>
-  </si>
-  <si>
     <t>TestCase_E7</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Articles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <t>TestCase_E8</t>
-  </si>
-  <si>
-    <t>OPQA-267</t>
-  </si>
-  <si>
     <t>TestCase_E9</t>
   </si>
   <si>
-    <t>TestCase_E10</t>
-  </si>
-  <si>
-    <t>OPQA-269</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch an Article from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Record View</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
     <t>TestCase_E11</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Patents</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <t>OPQA-273</t>
-  </si>
-  <si>
-    <t>TestCase_E12</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Patent from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Record View</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
     <t>TestCase_E13</t>
   </si>
   <si>
-    <t>TestCase_E14</t>
-  </si>
-  <si>
-    <t>OPQA-277</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Posts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> content search results page</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify that user is able to unwatch a Post from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Record View</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page</t>
-    </r>
-  </si>
-  <si>
-    <t>OPQA-280</t>
-  </si>
-  <si>
-    <t>OPQA-285</t>
-  </si>
-  <si>
     <t>TestCase_E15</t>
   </si>
   <si>
-    <t>TestCase_E16</t>
-  </si>
-  <si>
     <t>TestCase_E17</t>
-  </si>
-  <si>
-    <t>TestCase_E18</t>
   </si>
   <si>
     <t>TestCase_E19</t>
@@ -370,33 +91,6 @@
     <t>TestCase_E21</t>
   </si>
   <si>
-    <t>TestCase_E22</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch an Article from watchlist page</t>
-  </si>
-  <si>
-    <t>OPQA-293</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch a Patent from watchlist page</t>
-  </si>
-  <si>
-    <t>Verify that user is able to unwatch a Post from watchlist page</t>
-  </si>
-  <si>
-    <t>TestCase_E23</t>
-  </si>
-  <si>
-    <t>TestCase_E24</t>
-  </si>
-  <si>
-    <t>OPQA-294</t>
-  </si>
-  <si>
-    <t>OPQA-295</t>
-  </si>
-  <si>
     <t>TestCase_E25</t>
   </si>
   <si>
@@ -412,76 +106,27 @@
     <t>TestCase_E27</t>
   </si>
   <si>
-    <t>Verify that user is able to create multiple watchlists</t>
-  </si>
-  <si>
-    <t>TestCase_E28</t>
-  </si>
-  <si>
-    <t>OPQA-313</t>
-  </si>
-  <si>
     <t>TestCase_E29</t>
-  </si>
-  <si>
-    <t>OPQA-320
-||OPQA-623</t>
   </si>
   <si>
     <t>OPQA-312
 ||OPQA-624</t>
   </si>
   <si>
-    <t>TestCase_E30</t>
-  </si>
-  <si>
-    <t>Verify that user is able to have a watchlist with 0 item under it</t>
-  </si>
-  <si>
-    <t>OPQA-326</t>
-  </si>
-  <si>
-    <t>TestCase_E31</t>
-  </si>
-  <si>
     <t>OPQA-314 ||OPQA-317
 ||OPQA-327</t>
   </si>
   <si>
-    <t>Verify that every user watchlist is private by default</t>
-  </si>
-  <si>
-    <t>TestCase_E32</t>
-  </si>
-  <si>
-    <t>OPQA-328</t>
-  </si>
-  <si>
-    <t>TestCase_E33</t>
-  </si>
-  <si>
-    <t>TestCase_E34</t>
-  </si>
-  <si>
     <t>Verify that user is able to convert his public watchlist to private</t>
   </si>
   <si>
-    <t>TestCase_E35</t>
-  </si>
-  <si>
     <t>OPQA-330</t>
   </si>
   <si>
     <t>Verify that user is able to see the watchlist items by content type</t>
   </si>
   <si>
-    <t>TestCase_E36</t>
-  </si>
-  <si>
     <t>OPQA-618</t>
-  </si>
-  <si>
-    <t>TestCase_E37</t>
   </si>
   <si>
     <t>OPQA-625
@@ -491,9 +136,6 @@
     <t>Verify that a user's public watchlist is not visible to another user once that particular watchlist is deleted.</t>
   </si>
   <si>
-    <t>TestCase_E38</t>
-  </si>
-  <si>
     <t>OPQA-1105</t>
   </si>
   <si>
@@ -505,12 +147,6 @@
 ||OPQA-621</t>
   </si>
   <si>
-    <t>TestCase_E39</t>
-  </si>
-  <si>
-    <t>TestCase_E40</t>
-  </si>
-  <si>
     <t>OPQA-1108</t>
   </si>
   <si>
@@ -518,9 +154,6 @@
   </si>
   <si>
     <t>Verify that same patent can be added to multiple watchlists</t>
-  </si>
-  <si>
-    <t>TestCase_E41</t>
   </si>
   <si>
     <t>OPQA-1109</t>
@@ -530,9 +163,6 @@
 ||OPQA-310</t>
   </si>
   <si>
-    <t>TestCase_E42</t>
-  </si>
-  <si>
     <t>OPQA-298
 ||OPQA-304</t>
   </si>
@@ -541,23 +171,11 @@
 ||OPQA-306</t>
   </si>
   <si>
-    <t>TestCase_E43</t>
-  </si>
-  <si>
-    <t>TestCase_E44</t>
-  </si>
-  <si>
     <t>OPQA-303
 ||OPQA-308</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>OPQA-256
@@ -845,10 +463,6 @@
 ||Verify that watchlist name is customizable</t>
   </si>
   <si>
-    <t>Verify that user is able to share watchlist publically
-||Verify that user is able to see his public watchlists on his own profile page</t>
-  </si>
-  <si>
     <t>OPQA-324
 ||OPQA-326
 ||OPQA-328</t>
@@ -885,6 +499,58 @@
   <si>
     <t>Verify that user is able to watch a post(user generated content) to a particular watchlist from notification in home page
 ||Verify that user is able to unwatch a post from watchlist from notification in home page</t>
+  </si>
+  <si>
+    <t>OPQA-313
+||OPQA-320
+||OPQA-623</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create multiple watchlists
+||Verify that user is able to share watchlist publically
+||Verify that user is able to see his public watchlists on his own profile page</t>
+  </si>
+  <si>
+    <t>TestCase_E4</t>
+  </si>
+  <si>
+    <t>TestCase_E5</t>
+  </si>
+  <si>
+    <t>TestCase_E6</t>
+  </si>
+  <si>
+    <t>TestCase_E8</t>
+  </si>
+  <si>
+    <t>TestCase_E10</t>
+  </si>
+  <si>
+    <t>TestCase_E12</t>
+  </si>
+  <si>
+    <t>TestCase_E14</t>
+  </si>
+  <si>
+    <t>TestCase_E16</t>
+  </si>
+  <si>
+    <t>TestCase_E18</t>
+  </si>
+  <si>
+    <t>TestCase_E22</t>
+  </si>
+  <si>
+    <t>TestCase_E23</t>
+  </si>
+  <si>
+    <t>TestCase_E24</t>
+  </si>
+  <si>
+    <t>TestCase_E28</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -915,7 +581,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,14 +606,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -970,56 +630,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,27 +643,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1345,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1382,16 +983,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -1399,16 +1000,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
@@ -1416,713 +1017,458 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>83</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45">
       <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45">
       <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
       <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
       <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45">
       <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>89</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>54</v>
+        <v>91</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>128</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>129</v>
+        <v>45</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>130</v>
+        <v>47</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45">
-      <c r="A31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45">
-      <c r="A34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45">
-      <c r="A35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45">
-      <c r="A38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30">
-      <c r="A40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30">
-      <c r="A43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30">
-      <c r="A44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A45" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13830" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>TCID</t>
   </si>
@@ -548,9 +548,6 @@
   </si>
   <si>
     <t>TestCase_E28</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -649,9 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1359,11 +1354,11 @@
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>48</v>
@@ -1393,11 +1388,11 @@
       <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>48</v>
@@ -1414,7 +1409,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>48</v>
@@ -1431,7 +1426,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>48</v>
@@ -1448,7 +1443,7 @@
         <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>48</v>
@@ -1465,7 +1460,7 @@
         <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13830" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="11895" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,12 +594,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,13 +634,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -980,7 +974,7 @@
       <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -997,7 +991,7 @@
       <c r="B3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1014,7 +1008,7 @@
       <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1031,7 +1025,7 @@
       <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1048,7 +1042,7 @@
       <c r="B6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1065,7 +1059,7 @@
       <c r="B7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1082,7 +1076,7 @@
       <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1099,7 +1093,7 @@
       <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1116,7 +1110,7 @@
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1133,7 +1127,7 @@
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1150,7 +1144,7 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1167,7 +1161,7 @@
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1184,7 +1178,7 @@
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1201,7 +1195,7 @@
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1218,7 +1212,7 @@
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1235,7 +1229,7 @@
       <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1252,7 +1246,7 @@
       <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1269,7 +1263,7 @@
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1286,7 +1280,7 @@
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1303,7 +1297,7 @@
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1320,7 +1314,7 @@
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1337,7 +1331,7 @@
       <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1354,7 +1348,7 @@
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1371,7 +1365,7 @@
       <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1422,7 +1416,7 @@
       <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1439,7 +1433,7 @@
       <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1456,7 +1450,7 @@
       <c r="B30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="1" t="s">

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14310" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="11895" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>TCID</t>
   </si>
@@ -548,9 +548,6 @@
   </si>
   <si>
     <t>TestCase_E28</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -581,7 +578,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,12 +594,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,15 +634,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -985,7 +974,7 @@
       <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1002,7 +991,7 @@
       <c r="B3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1019,7 +1008,7 @@
       <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1036,7 +1025,7 @@
       <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1053,7 +1042,7 @@
       <c r="B6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1070,7 +1059,7 @@
       <c r="B7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1087,7 +1076,7 @@
       <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1104,7 +1093,7 @@
       <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1121,7 +1110,7 @@
       <c r="B10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1138,7 +1127,7 @@
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1155,7 +1144,7 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1172,7 +1161,7 @@
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1189,7 +1178,7 @@
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1206,7 +1195,7 @@
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1223,7 +1212,7 @@
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1240,7 +1229,7 @@
       <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1257,7 +1246,7 @@
       <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1274,7 +1263,7 @@
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1291,7 +1280,7 @@
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1308,7 +1297,7 @@
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1325,7 +1314,7 @@
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1342,7 +1331,7 @@
       <c r="B23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1359,11 +1348,11 @@
       <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>48</v>
@@ -1376,7 +1365,7 @@
       <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1393,11 +1382,11 @@
       <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>48</v>
@@ -1414,7 +1403,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>48</v>
@@ -1427,11 +1416,11 @@
       <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>48</v>
@@ -1444,11 +1433,11 @@
       <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>48</v>
@@ -1461,11 +1450,11 @@
       <c r="B30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="11895" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14595" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -33,37 +33,7 @@
     <t>Results</t>
   </si>
   <si>
-    <t>TestCase_E1</t>
-  </si>
-  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>TestCase_E2</t>
-  </si>
-  <si>
-    <t>TestCase_E3</t>
-  </si>
-  <si>
-    <t>TestCase_E7</t>
-  </si>
-  <si>
-    <t>TestCase_E9</t>
-  </si>
-  <si>
-    <t>TestCase_E11</t>
-  </si>
-  <si>
-    <t>TestCase_E13</t>
-  </si>
-  <si>
-    <t>TestCase_E15</t>
-  </si>
-  <si>
-    <t>TestCase_E17</t>
-  </si>
-  <si>
-    <t>TestCase_E19</t>
   </si>
   <si>
     <t>Verify that following fields are getting displayed for each article in the watchlist page:
@@ -74,9 +44,6 @@
     <t>OPQA-288</t>
   </si>
   <si>
-    <t>TestCase_E20</t>
-  </si>
-  <si>
     <t>OPQA-290</t>
   </si>
   <si>
@@ -88,25 +55,10 @@
     <t>OPQA-291</t>
   </si>
   <si>
-    <t>TestCase_E21</t>
-  </si>
-  <si>
-    <t>TestCase_E25</t>
-  </si>
-  <si>
     <t>Verify that document count gets decreased in the watchlist page when a item is deleted from watchlist</t>
   </si>
   <si>
     <t>OPQA-297</t>
-  </si>
-  <si>
-    <t>TestCase_E26</t>
-  </si>
-  <si>
-    <t>TestCase_E27</t>
-  </si>
-  <si>
-    <t>TestCase_E29</t>
   </si>
   <si>
     <t>OPQA-312
@@ -511,43 +463,91 @@
 ||Verify that user is able to see his public watchlists on his own profile page</t>
   </si>
   <si>
-    <t>TestCase_E4</t>
-  </si>
-  <si>
-    <t>TestCase_E5</t>
-  </si>
-  <si>
-    <t>TestCase_E6</t>
-  </si>
-  <si>
-    <t>TestCase_E8</t>
-  </si>
-  <si>
-    <t>TestCase_E10</t>
-  </si>
-  <si>
-    <t>TestCase_E12</t>
-  </si>
-  <si>
-    <t>TestCase_E14</t>
-  </si>
-  <si>
-    <t>TestCase_E16</t>
-  </si>
-  <si>
-    <t>TestCase_E18</t>
-  </si>
-  <si>
-    <t>TestCase_E22</t>
-  </si>
-  <si>
-    <t>TestCase_E23</t>
-  </si>
-  <si>
-    <t>TestCase_E24</t>
-  </si>
-  <si>
-    <t>TestCase_E28</t>
+    <t>Watchlist001</t>
+  </si>
+  <si>
+    <t>Watchlist002</t>
+  </si>
+  <si>
+    <t>Watchlist003</t>
+  </si>
+  <si>
+    <t>Watchlist004</t>
+  </si>
+  <si>
+    <t>Watchlist005</t>
+  </si>
+  <si>
+    <t>Watchlist006</t>
+  </si>
+  <si>
+    <t>Watchlist007</t>
+  </si>
+  <si>
+    <t>Watchlist008</t>
+  </si>
+  <si>
+    <t>Watchlist009</t>
+  </si>
+  <si>
+    <t>Watchlist010</t>
+  </si>
+  <si>
+    <t>Watchlist011</t>
+  </si>
+  <si>
+    <t>Watchlist012</t>
+  </si>
+  <si>
+    <t>Watchlist013</t>
+  </si>
+  <si>
+    <t>Watchlist014</t>
+  </si>
+  <si>
+    <t>Watchlist015</t>
+  </si>
+  <si>
+    <t>Watchlist016</t>
+  </si>
+  <si>
+    <t>Watchlist017</t>
+  </si>
+  <si>
+    <t>Watchlist018</t>
+  </si>
+  <si>
+    <t>Watchlist019</t>
+  </si>
+  <si>
+    <t>Watchlist020</t>
+  </si>
+  <si>
+    <t>Watchlist021</t>
+  </si>
+  <si>
+    <t>Watchlist022</t>
+  </si>
+  <si>
+    <t>Watchlist023</t>
+  </si>
+  <si>
+    <t>Watchlist024</t>
+  </si>
+  <si>
+    <t>Watchlist025</t>
+  </si>
+  <si>
+    <t>Watchlist026</t>
+  </si>
+  <si>
+    <t>Watchlist027</t>
+  </si>
+  <si>
+    <t>Watchlist028</t>
+  </si>
+  <si>
+    <t>Watchlist029</t>
   </si>
 </sst>
 </file>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -969,495 +969,495 @@
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/E suite.xlsx
+++ b/src/test/resources/xls/E suite.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Test Case Steps" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -937,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
